--- a/db/seeds/uar/unit_activity_reports/uars2017/UAR_March_2017.xlsx
+++ b/db/seeds/uar/unit_activity_reports/uars2017/UAR_March_2017.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustie49\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19290" windowHeight="7290"/>
+    <workbookView xWindow="180" yWindow="20" windowWidth="26900" windowHeight="12440"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory Unit Activity Report" sheetId="1" r:id="rId1"/>
@@ -17,17 +12,1073 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Inventory Unit Activity Report'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="130407"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="440">
+  <si>
+    <t>Maiorca Flour 25kgs</t>
+  </si>
+  <si>
+    <t>PAS00074</t>
+  </si>
+  <si>
+    <t>Maiorca Flour 5 KGS</t>
+  </si>
+  <si>
+    <t>PAS00075</t>
+  </si>
+  <si>
+    <t>Maiorca Flour 1 kg</t>
+  </si>
+  <si>
+    <t>PAS00083</t>
+  </si>
+  <si>
+    <t>Semola Rimacinata Flour 25kg</t>
+  </si>
+  <si>
+    <t>PAS00084</t>
+  </si>
+  <si>
+    <t>Semola Rimacinata Flour 5kg</t>
+  </si>
+  <si>
+    <t>PAS00085</t>
+  </si>
+  <si>
+    <t>Semola Rimacinata Flour 1kg</t>
+  </si>
+  <si>
+    <t>PAS00086</t>
+  </si>
+  <si>
+    <t>Castelvetrano Flour 25kg</t>
+  </si>
+  <si>
+    <t>PAS00087</t>
+  </si>
+  <si>
+    <t>Castelvetrano Flour 5kg</t>
+  </si>
+  <si>
+    <t>PAS00088</t>
+  </si>
+  <si>
+    <t>Castelvetrano Flour 1kg</t>
+  </si>
+  <si>
+    <t>PAS00089</t>
+  </si>
+  <si>
+    <t>Busiate 500gr/24</t>
+  </si>
+  <si>
+    <t>PAS00090</t>
+  </si>
+  <si>
+    <t>Busiate 250gr/30</t>
+  </si>
+  <si>
+    <t>PAS00701</t>
+  </si>
+  <si>
+    <t>Carnaroli Rice Gazzani 1kg/12</t>
+  </si>
+  <si>
+    <t>PAS00801</t>
+  </si>
+  <si>
+    <t>Vialone NanoRiceGazzani 1kg/12</t>
+  </si>
+  <si>
+    <t>PAS00902</t>
+  </si>
+  <si>
+    <t>Integrale Gazzani 1kg/12</t>
+  </si>
+  <si>
+    <t>PAS07401</t>
+  </si>
+  <si>
+    <t>Spaghetti by Martelli 500g/20</t>
+  </si>
+  <si>
+    <t>PAS07421</t>
+  </si>
+  <si>
+    <t>Spaghettini  by Martelli/20</t>
+  </si>
+  <si>
+    <t>PAS07441</t>
+  </si>
+  <si>
+    <t>Maccheroni by Martelli/20</t>
+  </si>
+  <si>
+    <t>PAS07442</t>
+  </si>
+  <si>
+    <t>Fusilli by Martelli 500g/20</t>
+  </si>
+  <si>
+    <t>PAS07461</t>
+  </si>
+  <si>
+    <t>Penne by Martelli 500g/20</t>
+  </si>
+  <si>
+    <t>PAS10003</t>
+  </si>
+  <si>
+    <t>Crespi Rice VENERE NERO500g/44</t>
+  </si>
+  <si>
+    <t>PAS10004</t>
+  </si>
+  <si>
+    <t>Crespi RiceROSSOIntegr500gr/44</t>
+  </si>
+  <si>
+    <t>PAS10050</t>
+  </si>
+  <si>
+    <t>Acquerello Rice 1Kg /12</t>
+  </si>
+  <si>
+    <t>PAS10051</t>
+  </si>
+  <si>
+    <t>Acquerello Rice 1/2 Kg /12</t>
+  </si>
+  <si>
+    <t>PAS10052</t>
+  </si>
+  <si>
+    <t>Acquerello Rice 250gr/20</t>
+  </si>
+  <si>
+    <t>PAS11997</t>
+  </si>
+  <si>
+    <t>Faella Spaghettoni 500g/20</t>
+  </si>
+  <si>
+    <t>PAS11998</t>
+  </si>
+  <si>
+    <t>Faella Linguine 500gr/20</t>
+  </si>
+  <si>
+    <t>PAS11999</t>
+  </si>
+  <si>
+    <t>Faella Penne 500gr/20</t>
+  </si>
+  <si>
+    <t>PAS12000</t>
+  </si>
+  <si>
+    <t>Faella Spaghetti 500gr/20</t>
+  </si>
+  <si>
+    <t>PAS12001</t>
+  </si>
+  <si>
+    <t>Faella Bucatini 500g/20</t>
+  </si>
+  <si>
+    <t>PAS12002</t>
+  </si>
+  <si>
+    <t>Faella Caserecci 500g/20</t>
+  </si>
+  <si>
+    <t>PAS12003</t>
+  </si>
+  <si>
+    <t>Faella Ziti Tagliati 500g/20</t>
+  </si>
+  <si>
+    <t>PAS12004</t>
+  </si>
+  <si>
+    <t>Faella Sedani 500g/20</t>
+  </si>
+  <si>
+    <t>PAS12006</t>
+  </si>
+  <si>
+    <t>Faella Mezzanelli 1kg/10</t>
+  </si>
+  <si>
+    <t>PAS12008</t>
+  </si>
+  <si>
+    <t>Faella Spaghettini 500g/20</t>
+  </si>
+  <si>
+    <t>PAS12020</t>
+  </si>
+  <si>
+    <t>Faella Mezzi Paccheri 500g/20</t>
+  </si>
+  <si>
+    <t>PAS12021</t>
+  </si>
+  <si>
+    <t>Faella Calamari 500g/20</t>
+  </si>
+  <si>
+    <t>PAS12032</t>
+  </si>
+  <si>
+    <t>FaellaTofe 500gr/20</t>
+  </si>
+  <si>
+    <t>PAS12033</t>
+  </si>
+  <si>
+    <t>Faella Genovesine 500g/20</t>
+  </si>
+  <si>
+    <t>PAS12034</t>
+  </si>
+  <si>
+    <t>Faella CANDELE LUN 1Kg/10</t>
+  </si>
+  <si>
+    <t>PAS12035</t>
+  </si>
+  <si>
+    <t>Faella Gemelli 500gr/20</t>
+  </si>
+  <si>
+    <t>PAS12036</t>
+  </si>
+  <si>
+    <t>Faella Anelli Rigati 500gr/20</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>La Dolce Vita ItalyMag</t>
+  </si>
+  <si>
+    <t>GIF00030</t>
+  </si>
+  <si>
+    <t>Pasta al Pomodoro</t>
+  </si>
+  <si>
+    <t>GIF00045</t>
+  </si>
+  <si>
+    <t>Pasta al Pesto</t>
+  </si>
+  <si>
+    <t>GIF00049</t>
+  </si>
+  <si>
+    <t>Anno Nuovo</t>
+  </si>
+  <si>
+    <t>GIF0006</t>
+  </si>
+  <si>
+    <t>Umbria Box</t>
+  </si>
+  <si>
+    <t>GIF10046</t>
+  </si>
+  <si>
+    <t>Spaghetti Colatura</t>
+  </si>
+  <si>
+    <t>GIF20010</t>
+  </si>
+  <si>
+    <t>Grande Gastronomia</t>
+  </si>
+  <si>
+    <t>GIF20091A</t>
+  </si>
+  <si>
+    <t>Party in Cucina</t>
+  </si>
+  <si>
+    <t>GIF20091B</t>
+  </si>
+  <si>
+    <t>Party In Cucina cardboard</t>
+  </si>
+  <si>
+    <t>GIF20092A</t>
+  </si>
+  <si>
+    <t>Festeggiamo!</t>
+  </si>
+  <si>
+    <t>GIF20092B</t>
+  </si>
+  <si>
+    <t>Festeggiamo! cardboard</t>
+  </si>
+  <si>
+    <t>GIF20093B</t>
+  </si>
+  <si>
+    <t>Cena A Casa cardboard</t>
+  </si>
+  <si>
+    <t>GIF20095A</t>
+  </si>
+  <si>
+    <t>Dolci di Natale</t>
+  </si>
+  <si>
+    <t>GIF20095B</t>
+  </si>
+  <si>
+    <t>Dolci di Natale cardboard</t>
+  </si>
+  <si>
+    <t>gif20096A</t>
+  </si>
+  <si>
+    <t>antpasto $100</t>
+  </si>
+  <si>
+    <t>GIF20096B</t>
+  </si>
+  <si>
+    <t>Antipasto $80 cardboard</t>
+  </si>
+  <si>
+    <t>gif20111A</t>
+  </si>
+  <si>
+    <t>O' Sole Mio</t>
+  </si>
+  <si>
+    <t>gif20111B</t>
+  </si>
+  <si>
+    <t>O' Sole Mio cardboard</t>
+  </si>
+  <si>
+    <t>GIFC0002</t>
+  </si>
+  <si>
+    <t>Risotto ai Funghi</t>
+  </si>
+  <si>
+    <t>GIFC0003</t>
+  </si>
+  <si>
+    <t>O Sole Mio</t>
+  </si>
+  <si>
+    <t>GIFW0001</t>
+  </si>
+  <si>
+    <t>Antipasto</t>
+  </si>
+  <si>
+    <t>GIFW0002</t>
+  </si>
+  <si>
+    <t>Cena A Casa</t>
+  </si>
+  <si>
+    <t>GIFW0003</t>
+  </si>
+  <si>
+    <t>Party In Cucina</t>
+  </si>
+  <si>
+    <t>MIE01301</t>
+  </si>
+  <si>
+    <t>Millefiori Honey Liccu 200g/12</t>
+  </si>
+  <si>
+    <t>MIE01401</t>
+  </si>
+  <si>
+    <t>Asphodel Honey Liccu 200g/12</t>
+  </si>
+  <si>
+    <t>MIE01501</t>
+  </si>
+  <si>
+    <t>Eucalyptus Honey Liccu 200g/12</t>
+  </si>
+  <si>
+    <t>MIE01601</t>
+  </si>
+  <si>
+    <t>Corbezzolo Honey Liccu 200g/12</t>
+  </si>
+  <si>
+    <t>MIE01602</t>
+  </si>
+  <si>
+    <t>Cardo Honey Liccu 200g/12</t>
+  </si>
+  <si>
+    <t>OLI00131</t>
+  </si>
+  <si>
+    <t>Pianogrillo .5l / 6</t>
+  </si>
+  <si>
+    <t>OLI00132</t>
+  </si>
+  <si>
+    <t>Pianogrillo - .25 lt tin / 24</t>
+  </si>
+  <si>
+    <t>OLI00134</t>
+  </si>
+  <si>
+    <t>Piano 5lt Tins for Gustiamo/4</t>
+  </si>
+  <si>
+    <t>OLI00135</t>
+  </si>
+  <si>
+    <t>Piano BYB .75 wine bottle</t>
+  </si>
+  <si>
+    <t>OLI00212</t>
+  </si>
+  <si>
+    <t>Il Tratturello .75l / 6</t>
+  </si>
+  <si>
+    <t>OLI00216</t>
+  </si>
+  <si>
+    <t>Il Tratturello 5ltTins for G/4</t>
+  </si>
+  <si>
+    <t>OLI00217</t>
+  </si>
+  <si>
+    <t>Il Tratturello BYB .75 winebot</t>
+  </si>
+  <si>
+    <t>OLI01101</t>
+  </si>
+  <si>
+    <t>Antichi Uliveti - .5lt / 6</t>
+  </si>
+  <si>
+    <t>OLI01102</t>
+  </si>
+  <si>
+    <t>Antichi Uliveti - .25lt / 20</t>
+  </si>
+  <si>
+    <t>OLI01550</t>
+  </si>
+  <si>
+    <t>Cru di Cures 500ml/ 6</t>
+  </si>
+  <si>
+    <t>OLI01553</t>
+  </si>
+  <si>
+    <t>Cru di Cures 5lt tin $16.3/lt</t>
+  </si>
+  <si>
+    <t>OLI01926</t>
+  </si>
+  <si>
+    <t>Vicopisano  .5l / 6</t>
+  </si>
+  <si>
+    <t>OLI01932</t>
+  </si>
+  <si>
+    <t>Vicopisano 100ml / 12</t>
+  </si>
+  <si>
+    <t>OLI01935</t>
+  </si>
+  <si>
+    <t>RioGrifone 5lt tin- BIG</t>
+  </si>
+  <si>
+    <t>OLI01936</t>
+  </si>
+  <si>
+    <t>Rio Small Bottle .5lt/6</t>
+  </si>
+  <si>
+    <t>OLI01937</t>
+  </si>
+  <si>
+    <t>RIO GRIFO BYB .75 wine bottle</t>
+  </si>
+  <si>
+    <t>OLI08101</t>
+  </si>
+  <si>
+    <t>Benza .5l / 6</t>
+  </si>
+  <si>
+    <t>OLI08102</t>
+  </si>
+  <si>
+    <t>Benza - 5lt tin</t>
+  </si>
+  <si>
+    <t>OLI08105</t>
+  </si>
+  <si>
+    <t>Benza BYB .75l wine bottle</t>
+  </si>
+  <si>
+    <t>PAS00073</t>
+  </si>
+  <si>
+    <t>CON03506</t>
+  </si>
+  <si>
+    <t>Almonds Unpeeled 1kg/10</t>
+  </si>
+  <si>
+    <t>CON03507</t>
+  </si>
+  <si>
+    <t>Almonds Peeled BIG 1Kg/10</t>
+  </si>
+  <si>
+    <t>CON03600</t>
+  </si>
+  <si>
+    <t>pine nuts 50gr</t>
+  </si>
+  <si>
+    <t>CON03901</t>
+  </si>
+  <si>
+    <t>Pink Grapefruit by Sicilia/6</t>
+  </si>
+  <si>
+    <t>CON04101</t>
+  </si>
+  <si>
+    <t>Apricot Extra Jam bySicil/6</t>
+  </si>
+  <si>
+    <t>CON08396</t>
+  </si>
+  <si>
+    <t>Yellow Piennolo 1kg/6</t>
+  </si>
+  <si>
+    <t>CON08397</t>
+  </si>
+  <si>
+    <t>Yellow Piennolo 520g/6</t>
+  </si>
+  <si>
+    <t>CON08398</t>
+  </si>
+  <si>
+    <t>Piennolo Vine Tomatoes 1kg/6</t>
+  </si>
+  <si>
+    <t>CON08399</t>
+  </si>
+  <si>
+    <t>Piennolo Vine Tomatoes 520g/6</t>
+  </si>
+  <si>
+    <t>CON08400</t>
+  </si>
+  <si>
+    <t>Apricot Marmalade Barone /12</t>
+  </si>
+  <si>
+    <t>CON08500</t>
+  </si>
+  <si>
+    <t>Orange Marmalade Barone/12</t>
+  </si>
+  <si>
+    <t>CON08600</t>
+  </si>
+  <si>
+    <t>Pear Jam by Barone/12</t>
+  </si>
+  <si>
+    <t>CON09001</t>
+  </si>
+  <si>
+    <t>Stratto Pianogrillo 350g /12</t>
+  </si>
+  <si>
+    <t>CON09002</t>
+  </si>
+  <si>
+    <t>Salsa Pianogrillo 330g/12</t>
+  </si>
+  <si>
+    <t>CON09070</t>
+  </si>
+  <si>
+    <t>Dry Porcini- bag  50g</t>
+  </si>
+  <si>
+    <t>CON09073</t>
+  </si>
+  <si>
+    <t>Dry Porcini - bag 500g</t>
+  </si>
+  <si>
+    <t>CON09100</t>
+  </si>
+  <si>
+    <t>Green Olives Frat 580ml/12</t>
+  </si>
+  <si>
+    <t>CON09101</t>
+  </si>
+  <si>
+    <t>Green Olives Frat 1700ml/4</t>
+  </si>
+  <si>
+    <t>CON09102</t>
+  </si>
+  <si>
+    <t>Green Olives Frate 4700ml/2</t>
+  </si>
+  <si>
+    <t>CON09110</t>
+  </si>
+  <si>
+    <t>Black Olives Frate 580ml/12</t>
+  </si>
+  <si>
+    <t>CON09111</t>
+  </si>
+  <si>
+    <t>Black Olives Frate 4700ml/2</t>
+  </si>
+  <si>
+    <t>DOL00000</t>
+  </si>
+  <si>
+    <t>Molina Oversize XXL-Milk 250g</t>
+  </si>
+  <si>
+    <t>DOL00029</t>
+  </si>
+  <si>
+    <t>Molina Oversize XXL-Dark 250g</t>
+  </si>
+  <si>
+    <t>DOL00030</t>
+  </si>
+  <si>
+    <t>C-Amaro Origini 60g / 36</t>
+  </si>
+  <si>
+    <t>DOL00031</t>
+  </si>
+  <si>
+    <t>C-Amaro LagodiComoBlu 60g / 12</t>
+  </si>
+  <si>
+    <t>DOL00032</t>
+  </si>
+  <si>
+    <t>C-Amaro Choc/HazSpread 280g/12</t>
+  </si>
+  <si>
+    <t>DOL00033</t>
+  </si>
+  <si>
+    <t>C-Amaro PistachioSpread280g/12</t>
+  </si>
+  <si>
+    <t>DOL00034</t>
+  </si>
+  <si>
+    <t>C-Amaro AlmondSpread 280g / 12</t>
+  </si>
+  <si>
+    <t>DOL00204</t>
+  </si>
+  <si>
+    <t>Fagottini - Santomiele 150g</t>
+  </si>
+  <si>
+    <t>DOL00500</t>
+  </si>
+  <si>
+    <t>Panettone Biasetto 1kg</t>
+  </si>
+  <si>
+    <t>DOL00510</t>
+  </si>
+  <si>
+    <t>Pandoro Biasetto 1kg</t>
+  </si>
+  <si>
+    <t>DOL00520</t>
+  </si>
+  <si>
+    <t>Colomba Biasetto 750g</t>
+  </si>
+  <si>
+    <t>GIF00001</t>
+  </si>
+  <si>
+    <t>CRATE for gifts</t>
+  </si>
+  <si>
+    <t>GIF00002</t>
+  </si>
+  <si>
+    <t>tutto dolce ita crate</t>
+  </si>
+  <si>
+    <t>GIF00003</t>
+  </si>
+  <si>
+    <t>Pasta Perfect</t>
+  </si>
+  <si>
+    <t>GIF00004</t>
+  </si>
+  <si>
+    <t>Marcella Wood Crate</t>
+  </si>
+  <si>
+    <t>GIF00005</t>
+  </si>
+  <si>
+    <t>Signature</t>
+  </si>
+  <si>
+    <t>GIF00006</t>
+  </si>
+  <si>
+    <t>Viva Italia</t>
+  </si>
+  <si>
+    <t>GIF0001</t>
+  </si>
+  <si>
+    <t>Tutto Nuovo</t>
+  </si>
+  <si>
+    <t>GIF00012</t>
+  </si>
+  <si>
+    <t>Katie Parla</t>
+  </si>
+  <si>
+    <t>GIF0002</t>
+  </si>
+  <si>
+    <t>Aglio Olio</t>
+  </si>
+  <si>
+    <t>GIF00021</t>
+  </si>
+  <si>
+    <t>Beth and Mitch Crate $500</t>
+  </si>
+  <si>
+    <t>GIF00025</t>
+  </si>
+  <si>
+    <t>Beth and Mitch Crate $200</t>
+  </si>
+  <si>
+    <t>GIF00026</t>
+  </si>
+  <si>
+    <t>Bel Paese ItalyMag</t>
+  </si>
+  <si>
+    <t>GIF00028</t>
+  </si>
+  <si>
+    <t>Italia in Cucina ItalyMag</t>
+  </si>
+  <si>
+    <t>GIF0003</t>
+  </si>
+  <si>
+    <t>CON00191</t>
+  </si>
+  <si>
+    <t>Pesto Genovese Panizza 150g</t>
+  </si>
+  <si>
+    <t>CON00231</t>
+  </si>
+  <si>
+    <t>Saffron-Stamens 1gr</t>
+  </si>
+  <si>
+    <t>CON00232</t>
+  </si>
+  <si>
+    <t>Saffron Powder .3gr</t>
+  </si>
+  <si>
+    <t>CON00349</t>
+  </si>
+  <si>
+    <t>Miracolo San Gennaro 530gr/12</t>
+  </si>
+  <si>
+    <t>CON00350</t>
+  </si>
+  <si>
+    <t>San Gennaro Tomatoes 960 gr/6</t>
+  </si>
+  <si>
+    <t>CON00353</t>
+  </si>
+  <si>
+    <t>Pomdorini San Gennaro 530gr/12</t>
+  </si>
+  <si>
+    <t>CON00360</t>
+  </si>
+  <si>
+    <t>terra amore 800gr/12</t>
+  </si>
+  <si>
+    <t>CON00361</t>
+  </si>
+  <si>
+    <t>terra amore 400gr/24</t>
+  </si>
+  <si>
+    <t>CON00450</t>
+  </si>
+  <si>
+    <t>Dani DOP SAN MARZANO 400gr/12</t>
+  </si>
+  <si>
+    <t>CON00460</t>
+  </si>
+  <si>
+    <t>Dani DOP SAN MARZANO 800gr/12</t>
+  </si>
+  <si>
+    <t>CON00470</t>
+  </si>
+  <si>
+    <t>Dani DOP SAN MARZANO 2.5Kg/6</t>
+  </si>
+  <si>
+    <t>CON00472</t>
+  </si>
+  <si>
+    <t>Dani ITALIAN 100% TOM 2.5kg/6</t>
+  </si>
+  <si>
+    <t>CON00473</t>
+  </si>
+  <si>
+    <t>Dani ITALIAN 100% TOM 400g/24</t>
+  </si>
+  <si>
+    <t>CON01701</t>
+  </si>
+  <si>
+    <t>Zibibbo DRY Raisins 250g</t>
+  </si>
+  <si>
+    <t>CON01801</t>
+  </si>
+  <si>
+    <t>Zibibbo Grape Elixir 140g / 24</t>
+  </si>
+  <si>
+    <t>CON01900</t>
+  </si>
+  <si>
+    <t>Carciofini Piccoli 2900g/4</t>
+  </si>
+  <si>
+    <t>CON01901</t>
+  </si>
+  <si>
+    <t>Small ArtichokeMaida190g/24</t>
+  </si>
+  <si>
+    <t>CON01902</t>
+  </si>
+  <si>
+    <t>Antipasto Maida 190g/24</t>
+  </si>
+  <si>
+    <t>CON01904</t>
+  </si>
+  <si>
+    <t>Olive Cilentane Maida190g/24</t>
+  </si>
+  <si>
+    <t>CON01905</t>
+  </si>
+  <si>
+    <t>Jam Fichi Bianchi Maida220g/24</t>
+  </si>
+  <si>
+    <t>CON01907</t>
+  </si>
+  <si>
+    <t>Jam Pere Noci Maida220g/24</t>
+  </si>
+  <si>
+    <t>CON01910</t>
+  </si>
+  <si>
+    <t>Peperoncini Maida 190g/24</t>
+  </si>
+  <si>
+    <t>CON01911</t>
+  </si>
+  <si>
+    <t>Yellow Tomato Maida680g/12</t>
+  </si>
+  <si>
+    <t>CON01913</t>
+  </si>
+  <si>
+    <t>Pomodorini Maida 680gr / 12</t>
+  </si>
+  <si>
+    <t>CON01914</t>
+  </si>
+  <si>
+    <t>Sun Dried Tom Maida190g/24</t>
+  </si>
+  <si>
+    <t>CON01916</t>
+  </si>
+  <si>
+    <t>Broccoli Maida 190gr/24</t>
+  </si>
+  <si>
+    <t>CON01917</t>
+  </si>
+  <si>
+    <t>Grilld ArtichokesMaida190gr/24</t>
+  </si>
+  <si>
+    <t>CON01920</t>
+  </si>
+  <si>
+    <t>Broccoli Maida 2900g/4</t>
+  </si>
+  <si>
+    <t>CON01921</t>
+  </si>
+  <si>
+    <t>Sun DriedTom BIG 2900g/4</t>
+  </si>
+  <si>
+    <t>CON01924</t>
+  </si>
+  <si>
+    <t>Olive CilentaneMaida2900g/4</t>
+  </si>
+  <si>
+    <t>CON02001</t>
+  </si>
+  <si>
+    <t>Salted Capers Jar 90g / 24</t>
+  </si>
+  <si>
+    <t>CON02401</t>
+  </si>
+  <si>
+    <t>Salted Capers in Bag 500g/10</t>
+  </si>
+  <si>
+    <t>CON02405</t>
+  </si>
+  <si>
+    <t>SaltedCaperberriesBag 500g/10</t>
+  </si>
+  <si>
+    <t>CON02501</t>
+  </si>
+  <si>
+    <t>Orange Marmalade by Sicilia/6</t>
+  </si>
+  <si>
+    <t>CON02601</t>
+  </si>
+  <si>
+    <t>Mandarin Marmalade bySicilia/6</t>
+  </si>
+  <si>
+    <t>CON02701</t>
+  </si>
+  <si>
+    <t>Citron Marmalade by Sicilia/6</t>
+  </si>
+  <si>
+    <t>CON02801</t>
+  </si>
+  <si>
+    <t>Bergamot Marmalade bySicilia/6</t>
+  </si>
+  <si>
+    <t>CON03101</t>
+  </si>
+  <si>
+    <t>Almonds Nougat Sicilia 200g/10</t>
+  </si>
+  <si>
+    <t>CON03501</t>
+  </si>
+  <si>
+    <t>Pistachio NougatSicilia200g/10</t>
+  </si>
+  <si>
+    <t>CON03502</t>
+  </si>
+  <si>
+    <t>Pistachio 250gr</t>
+  </si>
+  <si>
+    <t>CON03503</t>
+  </si>
+  <si>
+    <t>Almonds Peeled 250gr /20</t>
+  </si>
+  <si>
+    <t>CON03505</t>
+  </si>
+  <si>
+    <t>Almonds Unpeeled 250gr/20</t>
+  </si>
   <si>
     <t>Item ID</t>
   </si>
@@ -44,15 +1095,6 @@
     <t>Units Sold</t>
   </si>
   <si>
-    <t>Units Purc</t>
-  </si>
-  <si>
-    <t>Adjust Qty</t>
-  </si>
-  <si>
-    <t>Assembly Qty</t>
-  </si>
-  <si>
     <t>Qty on Hand</t>
   </si>
   <si>
@@ -303,1069 +1345,16 @@
   </si>
   <si>
     <t>Colatura 100ml / 15</t>
-  </si>
-  <si>
-    <t>CON00191</t>
-  </si>
-  <si>
-    <t>Pesto Genovese Panizza 150g</t>
-  </si>
-  <si>
-    <t>CON00231</t>
-  </si>
-  <si>
-    <t>Saffron-Stamens 1gr</t>
-  </si>
-  <si>
-    <t>CON00232</t>
-  </si>
-  <si>
-    <t>Saffron Powder .3gr</t>
-  </si>
-  <si>
-    <t>CON00349</t>
-  </si>
-  <si>
-    <t>Miracolo San Gennaro 530gr/12</t>
-  </si>
-  <si>
-    <t>CON00350</t>
-  </si>
-  <si>
-    <t>San Gennaro Tomatoes 960 gr/6</t>
-  </si>
-  <si>
-    <t>CON00353</t>
-  </si>
-  <si>
-    <t>Pomdorini San Gennaro 530gr/12</t>
-  </si>
-  <si>
-    <t>CON00360</t>
-  </si>
-  <si>
-    <t>terra amore 800gr/12</t>
-  </si>
-  <si>
-    <t>CON00361</t>
-  </si>
-  <si>
-    <t>terra amore 400gr/24</t>
-  </si>
-  <si>
-    <t>CON00450</t>
-  </si>
-  <si>
-    <t>Dani DOP SAN MARZANO 400gr/12</t>
-  </si>
-  <si>
-    <t>CON00460</t>
-  </si>
-  <si>
-    <t>Dani DOP SAN MARZANO 800gr/12</t>
-  </si>
-  <si>
-    <t>CON00470</t>
-  </si>
-  <si>
-    <t>Dani DOP SAN MARZANO 2.5Kg/6</t>
-  </si>
-  <si>
-    <t>CON00472</t>
-  </si>
-  <si>
-    <t>Dani ITALIAN 100% TOM 2.5kg/6</t>
-  </si>
-  <si>
-    <t>CON00473</t>
-  </si>
-  <si>
-    <t>Dani ITALIAN 100% TOM 400g/24</t>
-  </si>
-  <si>
-    <t>CON01701</t>
-  </si>
-  <si>
-    <t>Zibibbo DRY Raisins 250g</t>
-  </si>
-  <si>
-    <t>CON01801</t>
-  </si>
-  <si>
-    <t>Zibibbo Grape Elixir 140g / 24</t>
-  </si>
-  <si>
-    <t>CON01900</t>
-  </si>
-  <si>
-    <t>Carciofini Piccoli 2900g/4</t>
-  </si>
-  <si>
-    <t>CON01901</t>
-  </si>
-  <si>
-    <t>Small ArtichokeMaida190g/24</t>
-  </si>
-  <si>
-    <t>CON01902</t>
-  </si>
-  <si>
-    <t>Antipasto Maida 190g/24</t>
-  </si>
-  <si>
-    <t>CON01904</t>
-  </si>
-  <si>
-    <t>Olive Cilentane Maida190g/24</t>
-  </si>
-  <si>
-    <t>CON01905</t>
-  </si>
-  <si>
-    <t>Jam Fichi Bianchi Maida220g/24</t>
-  </si>
-  <si>
-    <t>CON01907</t>
-  </si>
-  <si>
-    <t>Jam Pere Noci Maida220g/24</t>
-  </si>
-  <si>
-    <t>CON01910</t>
-  </si>
-  <si>
-    <t>Peperoncini Maida 190g/24</t>
-  </si>
-  <si>
-    <t>CON01911</t>
-  </si>
-  <si>
-    <t>Yellow Tomato Maida680g/12</t>
-  </si>
-  <si>
-    <t>CON01913</t>
-  </si>
-  <si>
-    <t>Pomodorini Maida 680gr / 12</t>
-  </si>
-  <si>
-    <t>CON01914</t>
-  </si>
-  <si>
-    <t>Sun Dried Tom Maida190g/24</t>
-  </si>
-  <si>
-    <t>CON01916</t>
-  </si>
-  <si>
-    <t>Broccoli Maida 190gr/24</t>
-  </si>
-  <si>
-    <t>CON01917</t>
-  </si>
-  <si>
-    <t>Grilld ArtichokesMaida190gr/24</t>
-  </si>
-  <si>
-    <t>CON01920</t>
-  </si>
-  <si>
-    <t>Broccoli Maida 2900g/4</t>
-  </si>
-  <si>
-    <t>CON01921</t>
-  </si>
-  <si>
-    <t>Sun DriedTom BIG 2900g/4</t>
-  </si>
-  <si>
-    <t>CON01924</t>
-  </si>
-  <si>
-    <t>Olive CilentaneMaida2900g/4</t>
-  </si>
-  <si>
-    <t>CON02001</t>
-  </si>
-  <si>
-    <t>Salted Capers Jar 90g / 24</t>
-  </si>
-  <si>
-    <t>CON02401</t>
-  </si>
-  <si>
-    <t>Salted Capers in Bag 500g/10</t>
-  </si>
-  <si>
-    <t>CON02405</t>
-  </si>
-  <si>
-    <t>SaltedCaperberriesBag 500g/10</t>
-  </si>
-  <si>
-    <t>CON02501</t>
-  </si>
-  <si>
-    <t>Orange Marmalade by Sicilia/6</t>
-  </si>
-  <si>
-    <t>CON02601</t>
-  </si>
-  <si>
-    <t>Mandarin Marmalade bySicilia/6</t>
-  </si>
-  <si>
-    <t>CON02701</t>
-  </si>
-  <si>
-    <t>Citron Marmalade by Sicilia/6</t>
-  </si>
-  <si>
-    <t>CON02801</t>
-  </si>
-  <si>
-    <t>Bergamot Marmalade bySicilia/6</t>
-  </si>
-  <si>
-    <t>CON03101</t>
-  </si>
-  <si>
-    <t>Almonds Nougat Sicilia 200g/10</t>
-  </si>
-  <si>
-    <t>CON03501</t>
-  </si>
-  <si>
-    <t>Pistachio NougatSicilia200g/10</t>
-  </si>
-  <si>
-    <t>CON03502</t>
-  </si>
-  <si>
-    <t>Pistachio 250gr</t>
-  </si>
-  <si>
-    <t>CON03503</t>
-  </si>
-  <si>
-    <t>Almonds Peeled 250gr /20</t>
-  </si>
-  <si>
-    <t>CON03505</t>
-  </si>
-  <si>
-    <t>Almonds Unpeeled 250gr/20</t>
-  </si>
-  <si>
-    <t>CON03506</t>
-  </si>
-  <si>
-    <t>Almonds Unpeeled 1kg/10</t>
-  </si>
-  <si>
-    <t>CON03507</t>
-  </si>
-  <si>
-    <t>Almonds Peeled BIG 1Kg/10</t>
-  </si>
-  <si>
-    <t>CON03600</t>
-  </si>
-  <si>
-    <t>pine nuts 50gr</t>
-  </si>
-  <si>
-    <t>CON03901</t>
-  </si>
-  <si>
-    <t>Pink Grapefruit by Sicilia/6</t>
-  </si>
-  <si>
-    <t>CON04101</t>
-  </si>
-  <si>
-    <t>Apricot Extra Jam bySicil/6</t>
-  </si>
-  <si>
-    <t>CON08396</t>
-  </si>
-  <si>
-    <t>Yellow Piennolo 1kg/6</t>
-  </si>
-  <si>
-    <t>CON08397</t>
-  </si>
-  <si>
-    <t>Yellow Piennolo 520g/6</t>
-  </si>
-  <si>
-    <t>CON08398</t>
-  </si>
-  <si>
-    <t>Piennolo Vine Tomatoes 1kg/6</t>
-  </si>
-  <si>
-    <t>CON08399</t>
-  </si>
-  <si>
-    <t>Piennolo Vine Tomatoes 520g/6</t>
-  </si>
-  <si>
-    <t>CON08400</t>
-  </si>
-  <si>
-    <t>Apricot Marmalade Barone /12</t>
-  </si>
-  <si>
-    <t>CON08500</t>
-  </si>
-  <si>
-    <t>Orange Marmalade Barone/12</t>
-  </si>
-  <si>
-    <t>CON08600</t>
-  </si>
-  <si>
-    <t>Pear Jam by Barone/12</t>
-  </si>
-  <si>
-    <t>CON09001</t>
-  </si>
-  <si>
-    <t>Stratto Pianogrillo 350g /12</t>
-  </si>
-  <si>
-    <t>CON09002</t>
-  </si>
-  <si>
-    <t>Salsa Pianogrillo 330g/12</t>
-  </si>
-  <si>
-    <t>CON09070</t>
-  </si>
-  <si>
-    <t>Dry Porcini- bag  50g</t>
-  </si>
-  <si>
-    <t>CON09073</t>
-  </si>
-  <si>
-    <t>Dry Porcini - bag 500g</t>
-  </si>
-  <si>
-    <t>CON09100</t>
-  </si>
-  <si>
-    <t>Green Olives Frat 580ml/12</t>
-  </si>
-  <si>
-    <t>CON09101</t>
-  </si>
-  <si>
-    <t>Green Olives Frat 1700ml/4</t>
-  </si>
-  <si>
-    <t>CON09102</t>
-  </si>
-  <si>
-    <t>Green Olives Frate 4700ml/2</t>
-  </si>
-  <si>
-    <t>CON09110</t>
-  </si>
-  <si>
-    <t>Black Olives Frate 580ml/12</t>
-  </si>
-  <si>
-    <t>CON09111</t>
-  </si>
-  <si>
-    <t>Black Olives Frate 4700ml/2</t>
-  </si>
-  <si>
-    <t>DOL00000</t>
-  </si>
-  <si>
-    <t>Molina Oversize XXL-Milk 250g</t>
-  </si>
-  <si>
-    <t>DOL00029</t>
-  </si>
-  <si>
-    <t>Molina Oversize XXL-Dark 250g</t>
-  </si>
-  <si>
-    <t>DOL00030</t>
-  </si>
-  <si>
-    <t>C-Amaro Origini 60g / 36</t>
-  </si>
-  <si>
-    <t>DOL00031</t>
-  </si>
-  <si>
-    <t>C-Amaro LagodiComoBlu 60g / 12</t>
-  </si>
-  <si>
-    <t>DOL00032</t>
-  </si>
-  <si>
-    <t>C-Amaro Choc/HazSpread 280g/12</t>
-  </si>
-  <si>
-    <t>DOL00033</t>
-  </si>
-  <si>
-    <t>C-Amaro PistachioSpread280g/12</t>
-  </si>
-  <si>
-    <t>DOL00034</t>
-  </si>
-  <si>
-    <t>C-Amaro AlmondSpread 280g / 12</t>
-  </si>
-  <si>
-    <t>DOL00204</t>
-  </si>
-  <si>
-    <t>Fagottini - Santomiele 150g</t>
-  </si>
-  <si>
-    <t>DOL00500</t>
-  </si>
-  <si>
-    <t>Panettone Biasetto 1kg</t>
-  </si>
-  <si>
-    <t>DOL00510</t>
-  </si>
-  <si>
-    <t>Pandoro Biasetto 1kg</t>
-  </si>
-  <si>
-    <t>DOL00520</t>
-  </si>
-  <si>
-    <t>Colomba Biasetto 750g</t>
-  </si>
-  <si>
-    <t>GIF00001</t>
-  </si>
-  <si>
-    <t>CRATE for gifts</t>
-  </si>
-  <si>
-    <t>GIF00002</t>
-  </si>
-  <si>
-    <t>tutto dolce ita crate</t>
-  </si>
-  <si>
-    <t>GIF00003</t>
-  </si>
-  <si>
-    <t>Pasta Perfect</t>
-  </si>
-  <si>
-    <t>GIF00004</t>
-  </si>
-  <si>
-    <t>Marcella Wood Crate</t>
-  </si>
-  <si>
-    <t>GIF00005</t>
-  </si>
-  <si>
-    <t>Signature</t>
-  </si>
-  <si>
-    <t>GIF00006</t>
-  </si>
-  <si>
-    <t>Viva Italia</t>
-  </si>
-  <si>
-    <t>GIF0001</t>
-  </si>
-  <si>
-    <t>Tutto Nuovo</t>
-  </si>
-  <si>
-    <t>GIF00012</t>
-  </si>
-  <si>
-    <t>Katie Parla</t>
-  </si>
-  <si>
-    <t>GIF0002</t>
-  </si>
-  <si>
-    <t>Aglio Olio</t>
-  </si>
-  <si>
-    <t>GIF00021</t>
-  </si>
-  <si>
-    <t>Beth and Mitch Crate $500</t>
-  </si>
-  <si>
-    <t>GIF00025</t>
-  </si>
-  <si>
-    <t>Beth and Mitch Crate $200</t>
-  </si>
-  <si>
-    <t>GIF00026</t>
-  </si>
-  <si>
-    <t>Bel Paese ItalyMag</t>
-  </si>
-  <si>
-    <t>GIF00028</t>
-  </si>
-  <si>
-    <t>Italia in Cucina ItalyMag</t>
-  </si>
-  <si>
-    <t>GIF0003</t>
-  </si>
-  <si>
-    <t>La Dolce Vita ItalyMag</t>
-  </si>
-  <si>
-    <t>GIF00030</t>
-  </si>
-  <si>
-    <t>Pasta al Pomodoro</t>
-  </si>
-  <si>
-    <t>GIF00045</t>
-  </si>
-  <si>
-    <t>Pasta al Pesto</t>
-  </si>
-  <si>
-    <t>GIF00049</t>
-  </si>
-  <si>
-    <t>Anno Nuovo</t>
-  </si>
-  <si>
-    <t>GIF0006</t>
-  </si>
-  <si>
-    <t>Umbria Box</t>
-  </si>
-  <si>
-    <t>GIF10046</t>
-  </si>
-  <si>
-    <t>Spaghetti Colatura</t>
-  </si>
-  <si>
-    <t>GIF20010</t>
-  </si>
-  <si>
-    <t>Grande Gastronomia</t>
-  </si>
-  <si>
-    <t>GIF20091A</t>
-  </si>
-  <si>
-    <t>Party in Cucina</t>
-  </si>
-  <si>
-    <t>GIF20091B</t>
-  </si>
-  <si>
-    <t>Party In Cucina cardboard</t>
-  </si>
-  <si>
-    <t>GIF20092A</t>
-  </si>
-  <si>
-    <t>Festeggiamo!</t>
-  </si>
-  <si>
-    <t>GIF20092B</t>
-  </si>
-  <si>
-    <t>Festeggiamo! cardboard</t>
-  </si>
-  <si>
-    <t>GIF20093B</t>
-  </si>
-  <si>
-    <t>Cena A Casa cardboard</t>
-  </si>
-  <si>
-    <t>GIF20095A</t>
-  </si>
-  <si>
-    <t>Dolci di Natale</t>
-  </si>
-  <si>
-    <t>GIF20095B</t>
-  </si>
-  <si>
-    <t>Dolci di Natale cardboard</t>
-  </si>
-  <si>
-    <t>gif20096A</t>
-  </si>
-  <si>
-    <t>antpasto $100</t>
-  </si>
-  <si>
-    <t>GIF20096B</t>
-  </si>
-  <si>
-    <t>Antipasto $80 cardboard</t>
-  </si>
-  <si>
-    <t>gif20111A</t>
-  </si>
-  <si>
-    <t>O' Sole Mio</t>
-  </si>
-  <si>
-    <t>gif20111B</t>
-  </si>
-  <si>
-    <t>O' Sole Mio cardboard</t>
-  </si>
-  <si>
-    <t>GIFC0002</t>
-  </si>
-  <si>
-    <t>Risotto ai Funghi</t>
-  </si>
-  <si>
-    <t>GIFC0003</t>
-  </si>
-  <si>
-    <t>O Sole Mio</t>
-  </si>
-  <si>
-    <t>GIFW0001</t>
-  </si>
-  <si>
-    <t>Antipasto</t>
-  </si>
-  <si>
-    <t>GIFW0002</t>
-  </si>
-  <si>
-    <t>Cena A Casa</t>
-  </si>
-  <si>
-    <t>GIFW0003</t>
-  </si>
-  <si>
-    <t>Party In Cucina</t>
-  </si>
-  <si>
-    <t>MIE01301</t>
-  </si>
-  <si>
-    <t>Millefiori Honey Liccu 200g/12</t>
-  </si>
-  <si>
-    <t>MIE01401</t>
-  </si>
-  <si>
-    <t>Asphodel Honey Liccu 200g/12</t>
-  </si>
-  <si>
-    <t>MIE01501</t>
-  </si>
-  <si>
-    <t>Eucalyptus Honey Liccu 200g/12</t>
-  </si>
-  <si>
-    <t>MIE01601</t>
-  </si>
-  <si>
-    <t>Corbezzolo Honey Liccu 200g/12</t>
-  </si>
-  <si>
-    <t>MIE01602</t>
-  </si>
-  <si>
-    <t>Cardo Honey Liccu 200g/12</t>
-  </si>
-  <si>
-    <t>OLI00131</t>
-  </si>
-  <si>
-    <t>Pianogrillo .5l / 6</t>
-  </si>
-  <si>
-    <t>OLI00132</t>
-  </si>
-  <si>
-    <t>Pianogrillo - .25 lt tin / 24</t>
-  </si>
-  <si>
-    <t>OLI00134</t>
-  </si>
-  <si>
-    <t>Piano 5lt Tins for Gustiamo/4</t>
-  </si>
-  <si>
-    <t>OLI00135</t>
-  </si>
-  <si>
-    <t>Piano BYB .75 wine bottle</t>
-  </si>
-  <si>
-    <t>OLI00212</t>
-  </si>
-  <si>
-    <t>Il Tratturello .75l / 6</t>
-  </si>
-  <si>
-    <t>OLI00216</t>
-  </si>
-  <si>
-    <t>Il Tratturello 5ltTins for G/4</t>
-  </si>
-  <si>
-    <t>OLI00217</t>
-  </si>
-  <si>
-    <t>Il Tratturello BYB .75 winebot</t>
-  </si>
-  <si>
-    <t>OLI01101</t>
-  </si>
-  <si>
-    <t>Antichi Uliveti - .5lt / 6</t>
-  </si>
-  <si>
-    <t>OLI01102</t>
-  </si>
-  <si>
-    <t>Antichi Uliveti - .25lt / 20</t>
-  </si>
-  <si>
-    <t>OLI01550</t>
-  </si>
-  <si>
-    <t>Cru di Cures 500ml/ 6</t>
-  </si>
-  <si>
-    <t>OLI01553</t>
-  </si>
-  <si>
-    <t>Cru di Cures 5lt tin $16.3/lt</t>
-  </si>
-  <si>
-    <t>OLI01926</t>
-  </si>
-  <si>
-    <t>Vicopisano  .5l / 6</t>
-  </si>
-  <si>
-    <t>OLI01932</t>
-  </si>
-  <si>
-    <t>Vicopisano 100ml / 12</t>
-  </si>
-  <si>
-    <t>OLI01935</t>
-  </si>
-  <si>
-    <t>RioGrifone 5lt tin- BIG</t>
-  </si>
-  <si>
-    <t>OLI01936</t>
-  </si>
-  <si>
-    <t>Rio Small Bottle .5lt/6</t>
-  </si>
-  <si>
-    <t>OLI01937</t>
-  </si>
-  <si>
-    <t>RIO GRIFO BYB .75 wine bottle</t>
-  </si>
-  <si>
-    <t>OLI08101</t>
-  </si>
-  <si>
-    <t>Benza .5l / 6</t>
-  </si>
-  <si>
-    <t>OLI08102</t>
-  </si>
-  <si>
-    <t>Benza - 5lt tin</t>
-  </si>
-  <si>
-    <t>OLI08105</t>
-  </si>
-  <si>
-    <t>Benza BYB .75l wine bottle</t>
-  </si>
-  <si>
-    <t>PAS00073</t>
-  </si>
-  <si>
-    <t>Maiorca Flour 25kgs</t>
-  </si>
-  <si>
-    <t>PAS00074</t>
-  </si>
-  <si>
-    <t>Maiorca Flour 5 KGS</t>
-  </si>
-  <si>
-    <t>PAS00075</t>
-  </si>
-  <si>
-    <t>Maiorca Flour 1 kg</t>
-  </si>
-  <si>
-    <t>PAS00083</t>
-  </si>
-  <si>
-    <t>Semola Rimacinata Flour 25kg</t>
-  </si>
-  <si>
-    <t>PAS00084</t>
-  </si>
-  <si>
-    <t>Semola Rimacinata Flour 5kg</t>
-  </si>
-  <si>
-    <t>PAS00085</t>
-  </si>
-  <si>
-    <t>Semola Rimacinata Flour 1kg</t>
-  </si>
-  <si>
-    <t>PAS00086</t>
-  </si>
-  <si>
-    <t>Castelvetrano Flour 25kg</t>
-  </si>
-  <si>
-    <t>PAS00087</t>
-  </si>
-  <si>
-    <t>Castelvetrano Flour 5kg</t>
-  </si>
-  <si>
-    <t>PAS00088</t>
-  </si>
-  <si>
-    <t>Castelvetrano Flour 1kg</t>
-  </si>
-  <si>
-    <t>PAS00089</t>
-  </si>
-  <si>
-    <t>Busiate 500gr/24</t>
-  </si>
-  <si>
-    <t>PAS00090</t>
-  </si>
-  <si>
-    <t>Busiate 250gr/30</t>
-  </si>
-  <si>
-    <t>PAS00701</t>
-  </si>
-  <si>
-    <t>Carnaroli Rice Gazzani 1kg/12</t>
-  </si>
-  <si>
-    <t>PAS00801</t>
-  </si>
-  <si>
-    <t>Vialone NanoRiceGazzani 1kg/12</t>
-  </si>
-  <si>
-    <t>PAS00902</t>
-  </si>
-  <si>
-    <t>Integrale Gazzani 1kg/12</t>
-  </si>
-  <si>
-    <t>PAS07401</t>
-  </si>
-  <si>
-    <t>Spaghetti by Martelli 500g/20</t>
-  </si>
-  <si>
-    <t>PAS07421</t>
-  </si>
-  <si>
-    <t>Spaghettini  by Martelli/20</t>
-  </si>
-  <si>
-    <t>PAS07441</t>
-  </si>
-  <si>
-    <t>Maccheroni by Martelli/20</t>
-  </si>
-  <si>
-    <t>PAS07442</t>
-  </si>
-  <si>
-    <t>Fusilli by Martelli 500g/20</t>
-  </si>
-  <si>
-    <t>PAS07461</t>
-  </si>
-  <si>
-    <t>Penne by Martelli 500g/20</t>
-  </si>
-  <si>
-    <t>PAS10003</t>
-  </si>
-  <si>
-    <t>Crespi Rice VENERE NERO500g/44</t>
-  </si>
-  <si>
-    <t>PAS10004</t>
-  </si>
-  <si>
-    <t>Crespi RiceROSSOIntegr500gr/44</t>
-  </si>
-  <si>
-    <t>PAS10050</t>
-  </si>
-  <si>
-    <t>Acquerello Rice 1Kg /12</t>
-  </si>
-  <si>
-    <t>PAS10051</t>
-  </si>
-  <si>
-    <t>Acquerello Rice 1/2 Kg /12</t>
-  </si>
-  <si>
-    <t>PAS10052</t>
-  </si>
-  <si>
-    <t>Acquerello Rice 250gr/20</t>
-  </si>
-  <si>
-    <t>PAS11997</t>
-  </si>
-  <si>
-    <t>Faella Spaghettoni 500g/20</t>
-  </si>
-  <si>
-    <t>PAS11998</t>
-  </si>
-  <si>
-    <t>Faella Linguine 500gr/20</t>
-  </si>
-  <si>
-    <t>PAS11999</t>
-  </si>
-  <si>
-    <t>Faella Penne 500gr/20</t>
-  </si>
-  <si>
-    <t>PAS12000</t>
-  </si>
-  <si>
-    <t>Faella Spaghetti 500gr/20</t>
-  </si>
-  <si>
-    <t>PAS12001</t>
-  </si>
-  <si>
-    <t>Faella Bucatini 500g/20</t>
-  </si>
-  <si>
-    <t>PAS12002</t>
-  </si>
-  <si>
-    <t>Faella Caserecci 500g/20</t>
-  </si>
-  <si>
-    <t>PAS12003</t>
-  </si>
-  <si>
-    <t>Faella Ziti Tagliati 500g/20</t>
-  </si>
-  <si>
-    <t>PAS12004</t>
-  </si>
-  <si>
-    <t>Faella Sedani 500g/20</t>
-  </si>
-  <si>
-    <t>PAS12006</t>
-  </si>
-  <si>
-    <t>Faella Mezzanelli 1kg/10</t>
-  </si>
-  <si>
-    <t>PAS12008</t>
-  </si>
-  <si>
-    <t>Faella Spaghettini 500g/20</t>
-  </si>
-  <si>
-    <t>PAS12020</t>
-  </si>
-  <si>
-    <t>Faella Mezzi Paccheri 500g/20</t>
-  </si>
-  <si>
-    <t>PAS12021</t>
-  </si>
-  <si>
-    <t>Faella Calamari 500g/20</t>
-  </si>
-  <si>
-    <t>PAS12032</t>
-  </si>
-  <si>
-    <t>FaellaTofe 500gr/20</t>
-  </si>
-  <si>
-    <t>PAS12033</t>
-  </si>
-  <si>
-    <t>Faella Genovesine 500g/20</t>
-  </si>
-  <si>
-    <t>PAS12034</t>
-  </si>
-  <si>
-    <t>Faella CANDELE LUN 1Kg/10</t>
-  </si>
-  <si>
-    <t>PAS12035</t>
-  </si>
-  <si>
-    <t>Faella Gemelli 500gr/20</t>
-  </si>
-  <si>
-    <t>PAS12036</t>
-  </si>
-  <si>
-    <t>Faella Anelli Rigati 500gr/20</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;\-#,##0;* ??"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1375,16 +1364,20 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1478,7 +1471,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1533,7 +1526,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1585,7 +1578,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1779,72 +1772,61 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I220"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:F220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="11"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="6" customWidth="1"/>
-    <col min="6" max="7" width="11.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.75" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="9" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>352</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2</v>
+        <v>353</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>3</v>
+        <v>354</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>4</v>
+        <v>355</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>358</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D2" s="6">
         <v>41</v>
@@ -1852,19 +1834,19 @@
       <c r="E2" s="6">
         <v>28</v>
       </c>
-      <c r="I2" s="6">
+      <c r="F2" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>360</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>361</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D3" s="6">
         <v>236</v>
@@ -1872,19 +1854,19 @@
       <c r="E3" s="6">
         <v>27</v>
       </c>
-      <c r="I3" s="6">
+      <c r="F3" s="6">
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>362</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>363</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D4" s="6">
         <v>66</v>
@@ -1892,36 +1874,36 @@
       <c r="E4" s="6">
         <v>14</v>
       </c>
-      <c r="I4" s="6">
+      <c r="F4" s="6">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>364</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>365</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D5" s="6">
         <v>6</v>
       </c>
-      <c r="I5" s="6">
+      <c r="F5" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>366</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>367</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D6" s="6">
         <v>9</v>
@@ -1929,19 +1911,19 @@
       <c r="E6" s="6">
         <v>4</v>
       </c>
-      <c r="I6" s="6">
+      <c r="F6" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>368</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>369</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D7" s="6">
         <v>46</v>
@@ -1949,36 +1931,36 @@
       <c r="E7" s="6">
         <v>1</v>
       </c>
-      <c r="I7" s="6">
+      <c r="F7" s="6">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>370</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>371</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D8" s="6">
         <v>5</v>
       </c>
-      <c r="I8" s="6">
+      <c r="F8" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>372</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>373</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D9" s="6">
         <v>232</v>
@@ -1986,19 +1968,19 @@
       <c r="E9" s="6">
         <v>18</v>
       </c>
-      <c r="I9" s="6">
+      <c r="F9" s="6">
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="49" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>374</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>375</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D10" s="6">
         <v>39</v>
@@ -2006,70 +1988,70 @@
       <c r="E10" s="6">
         <v>18</v>
       </c>
-      <c r="I10" s="6">
+      <c r="F10" s="6">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>376</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>377</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D11" s="6">
         <v>12</v>
       </c>
-      <c r="I11" s="6">
+      <c r="F11" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>378</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>379</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D12" s="6">
         <v>8</v>
       </c>
-      <c r="I12" s="6">
+      <c r="F12" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>380</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>381</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D13" s="6">
         <v>16</v>
       </c>
-      <c r="I13" s="6">
+      <c r="F13" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>382</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>383</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D14" s="6">
         <v>66</v>
@@ -2077,19 +2059,19 @@
       <c r="E14" s="6">
         <v>5</v>
       </c>
-      <c r="I14" s="6">
+      <c r="F14" s="6">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>36</v>
+        <v>384</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>385</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D15" s="6">
         <v>307</v>
@@ -2097,19 +2079,19 @@
       <c r="E15" s="6">
         <v>5</v>
       </c>
-      <c r="I15" s="6">
+      <c r="F15" s="6">
         <v>302</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>38</v>
+        <v>386</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>387</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D16" s="6">
         <v>193</v>
@@ -2117,19 +2099,19 @@
       <c r="E16" s="6">
         <v>15</v>
       </c>
-      <c r="I16" s="6">
+      <c r="F16" s="6">
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>388</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>389</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D17" s="6">
         <v>121</v>
@@ -2137,19 +2119,19 @@
       <c r="E17" s="6">
         <v>65</v>
       </c>
-      <c r="I17" s="6">
+      <c r="F17" s="6">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>42</v>
+        <v>390</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>391</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D18" s="6">
         <v>312</v>
@@ -2157,19 +2139,19 @@
       <c r="E18" s="6">
         <v>11</v>
       </c>
-      <c r="I18" s="6">
+      <c r="F18" s="6">
         <v>301</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>44</v>
+        <v>392</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>393</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D19" s="6">
         <v>190</v>
@@ -2177,19 +2159,19 @@
       <c r="E19" s="6">
         <v>48</v>
       </c>
-      <c r="I19" s="6">
+      <c r="F19" s="6">
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>46</v>
+        <v>394</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>395</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D20" s="6">
         <v>115</v>
@@ -2197,19 +2179,19 @@
       <c r="E20" s="6">
         <v>16</v>
       </c>
-      <c r="I20" s="6">
+      <c r="F20" s="6">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>48</v>
+        <v>396</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>397</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D21" s="6">
         <v>224</v>
@@ -2217,19 +2199,19 @@
       <c r="E21" s="6">
         <v>4</v>
       </c>
-      <c r="I21" s="6">
+      <c r="F21" s="6">
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>398</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>399</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D22" s="6">
         <v>107</v>
@@ -2237,19 +2219,19 @@
       <c r="E22" s="6">
         <v>18</v>
       </c>
-      <c r="I22" s="6">
+      <c r="F22" s="6">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>52</v>
+        <v>400</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>401</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D23" s="6">
         <v>297</v>
@@ -2257,19 +2239,19 @@
       <c r="E23" s="6">
         <v>247</v>
       </c>
-      <c r="I23" s="6">
+      <c r="F23" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>54</v>
+        <v>402</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>403</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D24" s="6">
         <v>375</v>
@@ -2277,19 +2259,19 @@
       <c r="E24" s="6">
         <v>156</v>
       </c>
-      <c r="I24" s="6">
+      <c r="F24" s="6">
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>56</v>
+        <v>404</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>405</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D25" s="6">
         <v>70</v>
@@ -2297,19 +2279,19 @@
       <c r="E25" s="6">
         <v>57</v>
       </c>
-      <c r="I25" s="6">
+      <c r="F25" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>406</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>407</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D26" s="6">
         <v>123</v>
@@ -2317,19 +2299,19 @@
       <c r="E26" s="6">
         <v>98</v>
       </c>
-      <c r="I26" s="6">
+      <c r="F26" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>408</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>409</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D27" s="6">
         <v>221</v>
@@ -2337,19 +2319,19 @@
       <c r="E27" s="6">
         <v>41</v>
       </c>
-      <c r="I27" s="6">
+      <c r="F27" s="6">
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>62</v>
+        <v>410</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>411</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D28" s="6">
         <v>62</v>
@@ -2357,19 +2339,19 @@
       <c r="E28" s="6">
         <v>3</v>
       </c>
-      <c r="I28" s="6">
+      <c r="F28" s="6">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>412</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>65</v>
+        <v>413</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D29" s="6">
         <v>183</v>
@@ -2377,19 +2359,19 @@
       <c r="E29" s="6">
         <v>14</v>
       </c>
-      <c r="I29" s="6">
+      <c r="F29" s="6">
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>66</v>
+        <v>414</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>415</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D30" s="6">
         <v>18</v>
@@ -2397,19 +2379,19 @@
       <c r="E30" s="6">
         <v>3</v>
       </c>
-      <c r="I30" s="6">
+      <c r="F30" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>68</v>
+        <v>416</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>69</v>
+        <v>417</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D31" s="6">
         <v>25</v>
@@ -2417,19 +2399,19 @@
       <c r="E31" s="6">
         <v>12</v>
       </c>
-      <c r="I31" s="6">
+      <c r="F31" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>70</v>
+        <v>418</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>71</v>
+        <v>419</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D32" s="6">
         <v>37</v>
@@ -2437,19 +2419,19 @@
       <c r="E32" s="6">
         <v>1</v>
       </c>
-      <c r="I32" s="6">
+      <c r="F32" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>72</v>
+        <v>420</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D33" s="6">
         <v>34</v>
@@ -2457,36 +2439,36 @@
       <c r="E33" s="6">
         <v>1</v>
       </c>
-      <c r="I33" s="6">
+      <c r="F33" s="6">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>74</v>
+        <v>422</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>75</v>
+        <v>423</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D34" s="6">
         <v>26</v>
       </c>
-      <c r="I34" s="6">
+      <c r="F34" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>76</v>
+        <v>424</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>77</v>
+        <v>425</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D35" s="6">
         <v>90</v>
@@ -2494,19 +2476,19 @@
       <c r="E35" s="6">
         <v>5</v>
       </c>
-      <c r="I35" s="6">
+      <c r="F35" s="6">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>78</v>
+        <v>426</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>79</v>
+        <v>427</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D36" s="6">
         <v>967</v>
@@ -2514,19 +2496,19 @@
       <c r="E36" s="6">
         <v>120</v>
       </c>
-      <c r="I36" s="6">
+      <c r="F36" s="6">
         <v>847</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>80</v>
+        <v>428</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>81</v>
+        <v>429</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D37" s="6">
         <v>503</v>
@@ -2534,19 +2516,19 @@
       <c r="E37" s="6">
         <v>170</v>
       </c>
-      <c r="I37" s="6">
+      <c r="F37" s="6">
         <v>333</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>82</v>
+        <v>430</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>83</v>
+        <v>431</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D38" s="6">
         <v>275</v>
@@ -2554,19 +2536,19 @@
       <c r="E38" s="6">
         <v>29</v>
       </c>
-      <c r="I38" s="6">
+      <c r="F38" s="6">
         <v>246</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
-        <v>84</v>
+        <v>432</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>85</v>
+        <v>433</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D39" s="6">
         <v>110</v>
@@ -2574,19 +2556,19 @@
       <c r="E39" s="6">
         <v>9</v>
       </c>
-      <c r="I39" s="6">
+      <c r="F39" s="6">
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>86</v>
+        <v>434</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>87</v>
+        <v>435</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D40" s="6">
         <v>24</v>
@@ -2594,19 +2576,19 @@
       <c r="E40" s="6">
         <v>13</v>
       </c>
-      <c r="I40" s="6">
+      <c r="F40" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
-        <v>88</v>
+        <v>436</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>89</v>
+        <v>437</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D41" s="6">
         <v>1</v>
@@ -2615,21 +2597,18 @@
         <v>94</v>
       </c>
       <c r="F41" s="6">
-        <v>160</v>
-      </c>
-      <c r="I41" s="6">
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
-        <v>90</v>
+        <v>438</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>91</v>
+        <v>439</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D42" s="6">
         <v>579</v>
@@ -2637,19 +2616,19 @@
       <c r="E42" s="6">
         <v>105</v>
       </c>
-      <c r="I42" s="6">
+      <c r="F42" s="6">
         <v>474</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
-        <v>92</v>
+        <v>267</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>93</v>
+        <v>268</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D43" s="6">
         <v>15</v>
@@ -2657,19 +2636,19 @@
       <c r="E43" s="6">
         <v>16</v>
       </c>
-      <c r="I43" s="6">
+      <c r="F43" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>94</v>
+        <v>269</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>95</v>
+        <v>270</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D44" s="6">
         <v>170</v>
@@ -2677,19 +2656,19 @@
       <c r="E44" s="6">
         <v>3</v>
       </c>
-      <c r="I44" s="6">
+      <c r="F44" s="6">
         <v>167</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
-        <v>96</v>
+        <v>271</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>97</v>
+        <v>272</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D45" s="6">
         <v>45</v>
@@ -2697,19 +2676,19 @@
       <c r="E45" s="6">
         <v>2</v>
       </c>
-      <c r="I45" s="6">
+      <c r="F45" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>98</v>
+        <v>273</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>99</v>
+        <v>274</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D46" s="6">
         <v>175</v>
@@ -2717,19 +2696,19 @@
       <c r="E46" s="6">
         <v>46</v>
       </c>
-      <c r="I46" s="6">
+      <c r="F46" s="6">
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>275</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>101</v>
+        <v>276</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D47" s="6">
         <v>265</v>
@@ -2737,19 +2716,19 @@
       <c r="E47" s="6">
         <v>1</v>
       </c>
-      <c r="I47" s="6">
+      <c r="F47" s="6">
         <v>264</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
-        <v>102</v>
+        <v>277</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>103</v>
+        <v>278</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D48" s="6">
         <v>65</v>
@@ -2757,30 +2736,30 @@
       <c r="E48" s="6">
         <v>63</v>
       </c>
-      <c r="I48" s="6">
+      <c r="F48" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
-        <v>104</v>
+        <v>279</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>105</v>
+        <v>280</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
-        <v>106</v>
+        <v>281</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>107</v>
+        <v>282</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D50" s="6">
         <v>294</v>
@@ -2788,19 +2767,19 @@
       <c r="E50" s="6">
         <v>2</v>
       </c>
-      <c r="I50" s="6">
+      <c r="F50" s="6">
         <v>292</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
-        <v>108</v>
+        <v>283</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>109</v>
+        <v>284</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D51" s="6">
         <v>11</v>
@@ -2808,19 +2787,19 @@
       <c r="E51" s="6">
         <v>7</v>
       </c>
-      <c r="I51" s="6">
+      <c r="F51" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>110</v>
+        <v>285</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>111</v>
+        <v>286</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D52" s="6">
         <v>4872</v>
@@ -2828,19 +2807,19 @@
       <c r="E52" s="6">
         <v>322</v>
       </c>
-      <c r="I52" s="6">
+      <c r="F52" s="6">
         <v>4550</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
-        <v>112</v>
+        <v>287</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>113</v>
+        <v>288</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D53" s="6">
         <v>1596</v>
@@ -2849,41 +2828,35 @@
         <v>1794</v>
       </c>
       <c r="F53" s="6">
-        <v>2970</v>
-      </c>
-      <c r="I53" s="6">
         <v>2772</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" s="2" t="s">
-        <v>114</v>
+        <v>289</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>115</v>
+        <v>290</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="E54" s="6">
         <v>654</v>
       </c>
       <c r="F54" s="6">
-        <v>2970</v>
-      </c>
-      <c r="I54" s="6">
         <v>2316</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" s="2" t="s">
-        <v>116</v>
+        <v>291</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>117</v>
+        <v>292</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D55" s="6">
         <v>153</v>
@@ -2891,19 +2864,19 @@
       <c r="E55" s="6">
         <v>13</v>
       </c>
-      <c r="I55" s="6">
+      <c r="F55" s="6">
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" s="2" t="s">
-        <v>118</v>
+        <v>293</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>119</v>
+        <v>294</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D56" s="6">
         <v>7</v>
@@ -2911,19 +2884,19 @@
       <c r="E56" s="6">
         <v>2</v>
       </c>
-      <c r="I56" s="6">
+      <c r="F56" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" s="2" t="s">
-        <v>120</v>
+        <v>295</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>121</v>
+        <v>296</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D57" s="6">
         <v>155</v>
@@ -2931,19 +2904,19 @@
       <c r="E57" s="6">
         <v>2</v>
       </c>
-      <c r="I57" s="6">
+      <c r="F57" s="6">
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" s="2" t="s">
-        <v>122</v>
+        <v>297</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>123</v>
+        <v>298</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D58" s="6">
         <v>8</v>
@@ -2951,19 +2924,19 @@
       <c r="E58" s="6">
         <v>6</v>
       </c>
-      <c r="I58" s="6">
+      <c r="F58" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" s="2" t="s">
-        <v>124</v>
+        <v>299</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D59" s="6">
         <v>147</v>
@@ -2971,19 +2944,19 @@
       <c r="E59" s="6">
         <v>1</v>
       </c>
-      <c r="I59" s="6">
+      <c r="F59" s="6">
         <v>146</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" s="2" t="s">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>127</v>
+        <v>302</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D60" s="6">
         <v>77</v>
@@ -2991,19 +2964,19 @@
       <c r="E60" s="6">
         <v>1</v>
       </c>
-      <c r="I60" s="6">
+      <c r="F60" s="6">
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" s="2" t="s">
-        <v>128</v>
+        <v>303</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>129</v>
+        <v>304</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D61" s="6">
         <v>142</v>
@@ -3011,19 +2984,19 @@
       <c r="E61" s="6">
         <v>1</v>
       </c>
-      <c r="I61" s="6">
+      <c r="F61" s="6">
         <v>141</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
-        <v>130</v>
+        <v>305</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>131</v>
+        <v>306</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D62" s="6">
         <v>98</v>
@@ -3031,19 +3004,19 @@
       <c r="E62" s="6">
         <v>7</v>
       </c>
-      <c r="I62" s="6">
+      <c r="F62" s="6">
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" s="2" t="s">
-        <v>132</v>
+        <v>307</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>133</v>
+        <v>308</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D63" s="6">
         <v>106</v>
@@ -3051,19 +3024,19 @@
       <c r="E63" s="6">
         <v>1</v>
       </c>
-      <c r="I63" s="6">
+      <c r="F63" s="6">
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" s="2" t="s">
-        <v>134</v>
+        <v>309</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>135</v>
+        <v>310</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D64" s="6">
         <v>71</v>
@@ -3071,19 +3044,19 @@
       <c r="E64" s="6">
         <v>62</v>
       </c>
-      <c r="I64" s="6">
+      <c r="F64" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" s="2" t="s">
-        <v>136</v>
+        <v>311</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>137</v>
+        <v>312</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D65" s="6">
         <v>124</v>
@@ -3091,19 +3064,19 @@
       <c r="E65" s="6">
         <v>21</v>
       </c>
-      <c r="I65" s="6">
+      <c r="F65" s="6">
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" s="2" t="s">
-        <v>138</v>
+        <v>313</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>139</v>
+        <v>314</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D66" s="6">
         <v>1086</v>
@@ -3111,19 +3084,19 @@
       <c r="E66" s="6">
         <v>201</v>
       </c>
-      <c r="I66" s="6">
+      <c r="F66" s="6">
         <v>885</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" s="2" t="s">
-        <v>140</v>
+        <v>315</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>141</v>
+        <v>316</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D67" s="6">
         <v>119</v>
@@ -3131,36 +3104,36 @@
       <c r="E67" s="6">
         <v>3</v>
       </c>
-      <c r="I67" s="6">
+      <c r="F67" s="6">
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" s="2" t="s">
-        <v>142</v>
+        <v>317</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>143</v>
+        <v>318</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D68" s="6">
         <v>98</v>
       </c>
-      <c r="I68" s="6">
+      <c r="F68" s="6">
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" s="2" t="s">
-        <v>144</v>
+        <v>319</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>145</v>
+        <v>320</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D69" s="6">
         <v>124</v>
@@ -3168,30 +3141,30 @@
       <c r="E69" s="6">
         <v>3</v>
       </c>
-      <c r="I69" s="6">
+      <c r="F69" s="6">
         <v>121</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" s="2" t="s">
-        <v>146</v>
+        <v>321</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>147</v>
+        <v>322</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="2" t="s">
-        <v>148</v>
+        <v>323</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>149</v>
+        <v>324</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D71" s="6">
         <v>5</v>
@@ -3199,19 +3172,19 @@
       <c r="E71" s="6">
         <v>4</v>
       </c>
-      <c r="I71" s="6">
+      <c r="F71" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" s="2" t="s">
-        <v>150</v>
+        <v>325</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>151</v>
+        <v>326</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D72" s="6">
         <v>11</v>
@@ -3219,19 +3192,19 @@
       <c r="E72" s="6">
         <v>2</v>
       </c>
-      <c r="I72" s="6">
+      <c r="F72" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" s="2" t="s">
-        <v>152</v>
+        <v>327</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>153</v>
+        <v>328</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D73" s="6">
         <v>142</v>
@@ -3239,19 +3212,19 @@
       <c r="E73" s="6">
         <v>14</v>
       </c>
-      <c r="I73" s="6">
+      <c r="F73" s="6">
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" s="2" t="s">
-        <v>154</v>
+        <v>329</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>155</v>
+        <v>330</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D74" s="6">
         <v>270</v>
@@ -3259,36 +3232,36 @@
       <c r="E74" s="6">
         <v>166</v>
       </c>
-      <c r="I74" s="6">
+      <c r="F74" s="6">
         <v>104</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" s="2" t="s">
-        <v>156</v>
+        <v>331</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>157</v>
+        <v>332</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D75" s="6">
         <v>46</v>
       </c>
-      <c r="I75" s="6">
+      <c r="F75" s="6">
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76" s="2" t="s">
-        <v>158</v>
+        <v>333</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>159</v>
+        <v>334</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D76" s="6">
         <v>30</v>
@@ -3296,70 +3269,70 @@
       <c r="E76" s="6">
         <v>2</v>
       </c>
-      <c r="I76" s="6">
+      <c r="F76" s="6">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77" s="2" t="s">
-        <v>160</v>
+        <v>335</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>161</v>
+        <v>336</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D77" s="6">
         <v>23</v>
       </c>
-      <c r="I77" s="6">
+      <c r="F77" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78" s="2" t="s">
-        <v>162</v>
+        <v>337</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>163</v>
+        <v>338</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D78" s="6">
         <v>12</v>
       </c>
-      <c r="I78" s="6">
+      <c r="F78" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79" s="2" t="s">
-        <v>164</v>
+        <v>339</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>165</v>
+        <v>340</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D79" s="6">
         <v>1</v>
       </c>
-      <c r="I79" s="6">
+      <c r="F79" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80" s="2" t="s">
-        <v>166</v>
+        <v>341</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>167</v>
+        <v>342</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D80" s="6">
         <v>24</v>
@@ -3367,19 +3340,19 @@
       <c r="E80" s="6">
         <v>3</v>
       </c>
-      <c r="I80" s="6">
+      <c r="F80" s="6">
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" s="2" t="s">
-        <v>168</v>
+        <v>343</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>169</v>
+        <v>344</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D81" s="6">
         <v>18</v>
@@ -3387,19 +3360,19 @@
       <c r="E81" s="6">
         <v>5</v>
       </c>
-      <c r="I81" s="6">
+      <c r="F81" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" s="2" t="s">
-        <v>170</v>
+        <v>345</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>171</v>
+        <v>346</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D82" s="6">
         <v>21</v>
@@ -3407,19 +3380,19 @@
       <c r="E82" s="6">
         <v>10</v>
       </c>
-      <c r="I82" s="6">
+      <c r="F82" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6">
       <c r="A83" s="2" t="s">
-        <v>172</v>
+        <v>347</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>173</v>
+        <v>348</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D83" s="6">
         <v>4</v>
@@ -3427,19 +3400,19 @@
       <c r="E83" s="6">
         <v>2</v>
       </c>
-      <c r="I83" s="6">
+      <c r="F83" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6">
       <c r="A84" s="2" t="s">
-        <v>174</v>
+        <v>349</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D84" s="6">
         <v>41</v>
@@ -3447,11 +3420,11 @@
       <c r="E84" s="6">
         <v>11</v>
       </c>
-      <c r="I84" s="6">
+      <c r="F84" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6">
       <c r="A85" s="2" t="s">
         <v>176</v>
       </c>
@@ -3459,7 +3432,7 @@
         <v>177</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D85" s="6">
         <v>3</v>
@@ -3467,11 +3440,11 @@
       <c r="E85" s="6">
         <v>2</v>
       </c>
-      <c r="I85" s="6">
+      <c r="F85" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6">
       <c r="A86" s="2" t="s">
         <v>178</v>
       </c>
@@ -3479,7 +3452,7 @@
         <v>179</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D86" s="6">
         <v>66</v>
@@ -3487,11 +3460,11 @@
       <c r="E86" s="6">
         <v>51</v>
       </c>
-      <c r="I86" s="6">
+      <c r="F86" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87" s="2" t="s">
         <v>180</v>
       </c>
@@ -3499,10 +3472,10 @@
         <v>181</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="2" t="s">
         <v>182</v>
       </c>
@@ -3510,7 +3483,7 @@
         <v>183</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D88" s="6">
         <v>16</v>
@@ -3518,11 +3491,11 @@
       <c r="E88" s="6">
         <v>4</v>
       </c>
-      <c r="I88" s="6">
+      <c r="F88" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6">
       <c r="A89" s="2" t="s">
         <v>184</v>
       </c>
@@ -3530,7 +3503,7 @@
         <v>185</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D89" s="6">
         <v>7</v>
@@ -3538,14 +3511,11 @@
       <c r="E89" s="6">
         <v>2</v>
       </c>
-      <c r="G89" s="6">
-        <v>-4</v>
-      </c>
-      <c r="I89" s="6">
+      <c r="F89" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6">
       <c r="A90" s="2" t="s">
         <v>186</v>
       </c>
@@ -3553,7 +3523,7 @@
         <v>187</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D90" s="6">
         <v>730</v>
@@ -3561,14 +3531,11 @@
       <c r="E90" s="6">
         <v>93</v>
       </c>
-      <c r="G90" s="6">
-        <v>-1</v>
-      </c>
-      <c r="I90" s="6">
+      <c r="F90" s="6">
         <v>636</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6">
       <c r="A91" s="2" t="s">
         <v>188</v>
       </c>
@@ -3576,7 +3543,7 @@
         <v>189</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D91" s="6">
         <v>377</v>
@@ -3584,11 +3551,11 @@
       <c r="E91" s="6">
         <v>20</v>
       </c>
-      <c r="I91" s="6">
+      <c r="F91" s="6">
         <v>357</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6">
       <c r="A92" s="2" t="s">
         <v>190</v>
       </c>
@@ -3596,7 +3563,7 @@
         <v>191</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D92" s="6">
         <v>1133</v>
@@ -3604,14 +3571,11 @@
       <c r="E92" s="6">
         <v>435</v>
       </c>
-      <c r="G92" s="6">
-        <v>-3</v>
-      </c>
-      <c r="I92" s="6">
+      <c r="F92" s="6">
         <v>695</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6">
       <c r="A93" s="2" t="s">
         <v>192</v>
       </c>
@@ -3619,7 +3583,7 @@
         <v>193</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D93" s="6">
         <v>744</v>
@@ -3627,11 +3591,11 @@
       <c r="E93" s="6">
         <v>32</v>
       </c>
-      <c r="I93" s="6">
+      <c r="F93" s="6">
         <v>712</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6">
       <c r="A94" s="2" t="s">
         <v>194</v>
       </c>
@@ -3639,7 +3603,7 @@
         <v>195</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D94" s="6">
         <v>98</v>
@@ -3647,11 +3611,11 @@
       <c r="E94" s="6">
         <v>5</v>
       </c>
-      <c r="I94" s="6">
+      <c r="F94" s="6">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6">
       <c r="A95" s="2" t="s">
         <v>196</v>
       </c>
@@ -3659,7 +3623,7 @@
         <v>197</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D95" s="6">
         <v>631</v>
@@ -3667,11 +3631,11 @@
       <c r="E95" s="6">
         <v>77</v>
       </c>
-      <c r="I95" s="6">
+      <c r="F95" s="6">
         <v>554</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6">
       <c r="A96" s="2" t="s">
         <v>198</v>
       </c>
@@ -3679,10 +3643,10 @@
         <v>199</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="2" t="s">
         <v>200</v>
       </c>
@@ -3690,7 +3654,7 @@
         <v>201</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D97" s="6">
         <v>35</v>
@@ -3699,13 +3663,10 @@
         <v>117</v>
       </c>
       <c r="F97" s="6">
-        <v>360</v>
-      </c>
-      <c r="I97" s="6">
         <v>278</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6">
       <c r="A98" s="2" t="s">
         <v>202</v>
       </c>
@@ -3713,7 +3674,7 @@
         <v>203</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D98" s="6">
         <v>4770</v>
@@ -3721,11 +3682,11 @@
       <c r="E98" s="6">
         <v>80</v>
       </c>
-      <c r="I98" s="6">
+      <c r="F98" s="6">
         <v>4690</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6">
       <c r="A99" s="2" t="s">
         <v>204</v>
       </c>
@@ -3733,7 +3694,7 @@
         <v>205</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D99" s="6">
         <v>36</v>
@@ -3741,11 +3702,11 @@
       <c r="E99" s="6">
         <v>29</v>
       </c>
-      <c r="I99" s="6">
+      <c r="F99" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6">
       <c r="A100" s="2" t="s">
         <v>206</v>
       </c>
@@ -3753,7 +3714,7 @@
         <v>207</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D100" s="6">
         <v>55</v>
@@ -3761,11 +3722,11 @@
       <c r="E100" s="6">
         <v>10</v>
       </c>
-      <c r="I100" s="6">
+      <c r="F100" s="6">
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6">
       <c r="A101" s="2" t="s">
         <v>208</v>
       </c>
@@ -3773,7 +3734,7 @@
         <v>209</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D101" s="6">
         <v>189</v>
@@ -3781,11 +3742,11 @@
       <c r="E101" s="6">
         <v>17</v>
       </c>
-      <c r="I101" s="6">
+      <c r="F101" s="6">
         <v>172</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6">
       <c r="A102" s="2" t="s">
         <v>210</v>
       </c>
@@ -3793,7 +3754,7 @@
         <v>211</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D102" s="6">
         <v>82</v>
@@ -3801,11 +3762,11 @@
       <c r="E102" s="6">
         <v>3</v>
       </c>
-      <c r="I102" s="6">
+      <c r="F102" s="6">
         <v>79</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6">
       <c r="A103" s="2" t="s">
         <v>212</v>
       </c>
@@ -3813,7 +3774,7 @@
         <v>213</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D103" s="6">
         <v>18</v>
@@ -3821,11 +3782,11 @@
       <c r="E103" s="6">
         <v>11</v>
       </c>
-      <c r="I103" s="6">
+      <c r="F103" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6">
       <c r="A104" s="2" t="s">
         <v>214</v>
       </c>
@@ -3833,7 +3794,7 @@
         <v>215</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D104" s="6">
         <v>187</v>
@@ -3841,11 +3802,11 @@
       <c r="E104" s="6">
         <v>6</v>
       </c>
-      <c r="I104" s="6">
+      <c r="F104" s="6">
         <v>181</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6">
       <c r="A105" s="2" t="s">
         <v>216</v>
       </c>
@@ -3853,16 +3814,16 @@
         <v>217</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="E105" s="6">
         <v>3</v>
       </c>
-      <c r="I105" s="6">
+      <c r="F105" s="6">
         <v>-3</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6">
       <c r="A106" s="2" t="s">
         <v>218</v>
       </c>
@@ -3870,7 +3831,7 @@
         <v>219</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D106" s="6">
         <v>68</v>
@@ -3878,11 +3839,11 @@
       <c r="E106" s="6">
         <v>4</v>
       </c>
-      <c r="I106" s="6">
+      <c r="F106" s="6">
         <v>64</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6">
       <c r="A107" s="2" t="s">
         <v>220</v>
       </c>
@@ -3890,7 +3851,7 @@
         <v>221</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D107" s="6">
         <v>54</v>
@@ -3898,11 +3859,11 @@
       <c r="E107" s="6">
         <v>14</v>
       </c>
-      <c r="I107" s="6">
+      <c r="F107" s="6">
         <v>40</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6">
       <c r="A108" s="2" t="s">
         <v>222</v>
       </c>
@@ -3910,7 +3871,7 @@
         <v>223</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D108" s="6">
         <v>30</v>
@@ -3918,14 +3879,11 @@
       <c r="E108" s="6">
         <v>4</v>
       </c>
-      <c r="G108" s="6">
-        <v>-2</v>
-      </c>
-      <c r="I108" s="6">
+      <c r="F108" s="6">
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6">
       <c r="A109" s="2" t="s">
         <v>224</v>
       </c>
@@ -3933,7 +3891,7 @@
         <v>225</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D109" s="6">
         <v>72</v>
@@ -3941,14 +3899,11 @@
       <c r="E109" s="6">
         <v>9</v>
       </c>
-      <c r="G109" s="6">
-        <v>-22</v>
-      </c>
-      <c r="I109" s="6">
+      <c r="F109" s="6">
         <v>41</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6">
       <c r="A110" s="2" t="s">
         <v>226</v>
       </c>
@@ -3956,7 +3911,7 @@
         <v>227</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D110" s="6">
         <v>366</v>
@@ -3964,11 +3919,11 @@
       <c r="E110" s="6">
         <v>33</v>
       </c>
-      <c r="I110" s="6">
+      <c r="F110" s="6">
         <v>333</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6">
       <c r="A111" s="2" t="s">
         <v>228</v>
       </c>
@@ -3976,7 +3931,7 @@
         <v>229</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D111" s="6">
         <v>492</v>
@@ -3984,11 +3939,11 @@
       <c r="E111" s="6">
         <v>92</v>
       </c>
-      <c r="I111" s="6">
+      <c r="F111" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6">
       <c r="A112" s="2" t="s">
         <v>230</v>
       </c>
@@ -3996,7 +3951,7 @@
         <v>231</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D112" s="6">
         <v>291</v>
@@ -4004,11 +3959,11 @@
       <c r="E112" s="6">
         <v>2</v>
       </c>
-      <c r="I112" s="6">
+      <c r="F112" s="6">
         <v>289</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6">
       <c r="A113" s="2" t="s">
         <v>232</v>
       </c>
@@ -4016,7 +3971,7 @@
         <v>233</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D113" s="6">
         <v>17</v>
@@ -4024,11 +3979,11 @@
       <c r="E113" s="6">
         <v>8</v>
       </c>
-      <c r="I113" s="6">
+      <c r="F113" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6">
       <c r="A114" s="2" t="s">
         <v>234</v>
       </c>
@@ -4036,16 +3991,16 @@
         <v>235</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D114" s="6">
         <v>1</v>
       </c>
-      <c r="I114" s="6">
+      <c r="F114" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6">
       <c r="A115" s="2" t="s">
         <v>236</v>
       </c>
@@ -4053,16 +4008,16 @@
         <v>237</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D115" s="6">
         <v>1</v>
       </c>
-      <c r="I115" s="6">
+      <c r="F115" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6">
       <c r="A116" s="2" t="s">
         <v>238</v>
       </c>
@@ -4070,22 +4025,16 @@
         <v>239</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="E116" s="6">
         <v>217</v>
       </c>
       <c r="F116" s="6">
-        <v>10</v>
-      </c>
-      <c r="G116" s="6">
-        <v>-2</v>
-      </c>
-      <c r="I116" s="6">
         <v>-209</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6">
       <c r="A117" s="2" t="s">
         <v>240</v>
       </c>
@@ -4093,16 +4042,16 @@
         <v>241</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D117" s="6">
         <v>-174</v>
       </c>
-      <c r="I117" s="6">
+      <c r="F117" s="6">
         <v>-174</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6">
       <c r="A118" s="2" t="s">
         <v>242</v>
       </c>
@@ -4110,16 +4059,16 @@
         <v>243</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D118" s="6">
         <v>-11</v>
       </c>
-      <c r="I118" s="6">
+      <c r="F118" s="6">
         <v>-11</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6">
       <c r="A119" s="2" t="s">
         <v>244</v>
       </c>
@@ -4127,16 +4076,16 @@
         <v>245</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D119" s="6">
         <v>-17</v>
       </c>
-      <c r="I119" s="6">
+      <c r="F119" s="6">
         <v>-17</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6">
       <c r="A120" s="2" t="s">
         <v>246</v>
       </c>
@@ -4144,16 +4093,16 @@
         <v>247</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D120" s="6">
         <v>-26</v>
       </c>
-      <c r="I120" s="6">
+      <c r="F120" s="6">
         <v>-26</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6">
       <c r="A121" s="2" t="s">
         <v>248</v>
       </c>
@@ -4161,16 +4110,16 @@
         <v>249</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D121" s="6">
         <v>-9</v>
       </c>
-      <c r="I121" s="6">
+      <c r="F121" s="6">
         <v>-9</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6">
       <c r="A122" s="2" t="s">
         <v>250</v>
       </c>
@@ -4178,16 +4127,16 @@
         <v>251</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D122" s="6">
         <v>-37</v>
       </c>
-      <c r="I122" s="6">
+      <c r="F122" s="6">
         <v>-37</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6">
       <c r="A123" s="2" t="s">
         <v>252</v>
       </c>
@@ -4195,10 +4144,10 @@
         <v>253</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="2" t="s">
         <v>254</v>
       </c>
@@ -4206,16 +4155,16 @@
         <v>255</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D124" s="6">
         <v>-13</v>
       </c>
-      <c r="I124" s="6">
+      <c r="F124" s="6">
         <v>-13</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6">
       <c r="A125" s="2" t="s">
         <v>256</v>
       </c>
@@ -4223,16 +4172,16 @@
         <v>257</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D125" s="6">
         <v>-8</v>
       </c>
-      <c r="I125" s="6">
+      <c r="F125" s="6">
         <v>-8</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6">
       <c r="A126" s="2" t="s">
         <v>258</v>
       </c>
@@ -4240,10 +4189,10 @@
         <v>259</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="2" t="s">
         <v>260</v>
       </c>
@@ -4251,10 +4200,10 @@
         <v>261</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="2" t="s">
         <v>262</v>
       </c>
@@ -4262,16 +4211,16 @@
         <v>263</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D128" s="6">
         <v>-5</v>
       </c>
-      <c r="I128" s="6">
+      <c r="F128" s="6">
         <v>-5</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6">
       <c r="A129" s="2" t="s">
         <v>264</v>
       </c>
@@ -4279,321 +4228,321 @@
         <v>265</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D129" s="6">
         <v>-6</v>
       </c>
-      <c r="I129" s="6">
+      <c r="F129" s="6">
         <v>-6</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6">
       <c r="A130" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>267</v>
+        <v>82</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D130" s="6">
         <v>-1</v>
       </c>
-      <c r="I130" s="6">
+      <c r="F130" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6">
       <c r="A131" s="2" t="s">
-        <v>268</v>
+        <v>83</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>269</v>
+        <v>84</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D131" s="6">
         <v>-31</v>
       </c>
-      <c r="I131" s="6">
+      <c r="F131" s="6">
         <v>-31</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6">
       <c r="A132" s="2" t="s">
-        <v>270</v>
+        <v>85</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>271</v>
+        <v>86</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D132" s="6">
         <v>-21</v>
       </c>
-      <c r="I132" s="6">
+      <c r="F132" s="6">
         <v>-21</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6">
       <c r="A133" s="2" t="s">
-        <v>272</v>
+        <v>87</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>273</v>
+        <v>88</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D133" s="6">
         <v>-5</v>
       </c>
-      <c r="I133" s="6">
+      <c r="F133" s="6">
         <v>-5</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6">
       <c r="A134" s="2" t="s">
-        <v>274</v>
+        <v>89</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>275</v>
+        <v>90</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D134" s="6">
         <v>-6</v>
       </c>
-      <c r="I134" s="6">
+      <c r="F134" s="6">
         <v>-6</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6">
       <c r="A135" s="2" t="s">
-        <v>276</v>
+        <v>91</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>277</v>
+        <v>92</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D135" s="6">
         <v>-10</v>
       </c>
-      <c r="I135" s="6">
+      <c r="F135" s="6">
         <v>-10</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6">
       <c r="A136" s="2" t="s">
-        <v>278</v>
+        <v>93</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>279</v>
+        <v>94</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D136" s="6">
         <v>-10</v>
       </c>
-      <c r="I136" s="6">
+      <c r="F136" s="6">
         <v>-10</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6">
       <c r="A137" s="2" t="s">
-        <v>280</v>
+        <v>95</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>281</v>
+        <v>96</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" s="2" t="s">
-        <v>282</v>
+        <v>97</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>283</v>
+        <v>98</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" s="2" t="s">
-        <v>284</v>
+        <v>99</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>285</v>
+        <v>100</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" s="2" t="s">
-        <v>286</v>
+        <v>101</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>287</v>
+        <v>102</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" s="2" t="s">
-        <v>288</v>
+        <v>103</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>289</v>
+        <v>104</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" s="2" t="s">
-        <v>290</v>
+        <v>105</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>291</v>
+        <v>106</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" s="2" t="s">
-        <v>292</v>
+        <v>107</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>293</v>
+        <v>108</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" s="2" t="s">
-        <v>294</v>
+        <v>109</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>295</v>
+        <v>110</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" s="2" t="s">
-        <v>296</v>
+        <v>111</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>297</v>
+        <v>112</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" s="2" t="s">
-        <v>298</v>
+        <v>113</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>299</v>
+        <v>114</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" s="2" t="s">
-        <v>300</v>
+        <v>115</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>301</v>
+        <v>116</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D147" s="6">
         <v>-3</v>
       </c>
-      <c r="I147" s="6">
+      <c r="F147" s="6">
         <v>-3</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6">
       <c r="A148" s="2" t="s">
-        <v>302</v>
+        <v>117</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>303</v>
+        <v>118</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D148" s="6">
         <v>-18</v>
       </c>
-      <c r="I148" s="6">
+      <c r="F148" s="6">
         <v>-18</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6">
       <c r="A149" s="2" t="s">
-        <v>304</v>
+        <v>119</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>305</v>
+        <v>120</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D149" s="6">
         <v>-22</v>
       </c>
-      <c r="I149" s="6">
+      <c r="F149" s="6">
         <v>-22</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6">
       <c r="A150" s="2" t="s">
-        <v>306</v>
+        <v>121</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>307</v>
+        <v>122</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D150" s="6">
         <v>-31</v>
       </c>
-      <c r="I150" s="6">
+      <c r="F150" s="6">
         <v>-31</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6">
       <c r="A151" s="2" t="s">
-        <v>308</v>
+        <v>123</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>309</v>
+        <v>124</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D151" s="6">
         <v>-20</v>
@@ -4601,36 +4550,36 @@
       <c r="E151" s="6">
         <v>1</v>
       </c>
-      <c r="I151" s="6">
+      <c r="F151" s="6">
         <v>-21</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6">
       <c r="A152" s="2" t="s">
-        <v>310</v>
+        <v>125</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>311</v>
+        <v>126</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D152" s="6">
         <v>-83</v>
       </c>
-      <c r="I152" s="6">
+      <c r="F152" s="6">
         <v>-83</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6">
       <c r="A153" s="2" t="s">
-        <v>312</v>
+        <v>127</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>313</v>
+        <v>128</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D153" s="6">
         <v>61</v>
@@ -4638,19 +4587,19 @@
       <c r="E153" s="6">
         <v>3</v>
       </c>
-      <c r="I153" s="6">
+      <c r="F153" s="6">
         <v>58</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6">
       <c r="A154" s="2" t="s">
-        <v>314</v>
+        <v>129</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>315</v>
+        <v>130</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D154" s="6">
         <v>46</v>
@@ -4658,19 +4607,19 @@
       <c r="E154" s="6">
         <v>3</v>
       </c>
-      <c r="I154" s="6">
+      <c r="F154" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6">
       <c r="A155" s="2" t="s">
-        <v>316</v>
+        <v>131</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>317</v>
+        <v>132</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D155" s="6">
         <v>89</v>
@@ -4678,19 +4627,19 @@
       <c r="E155" s="6">
         <v>3</v>
       </c>
-      <c r="I155" s="6">
+      <c r="F155" s="6">
         <v>86</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6">
       <c r="A156" s="2" t="s">
-        <v>318</v>
+        <v>133</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>319</v>
+        <v>134</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D156" s="6">
         <v>87</v>
@@ -4698,19 +4647,19 @@
       <c r="E156" s="6">
         <v>7</v>
       </c>
-      <c r="I156" s="6">
+      <c r="F156" s="6">
         <v>80</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6">
       <c r="A157" s="2" t="s">
-        <v>320</v>
+        <v>135</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>321</v>
+        <v>136</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D157" s="6">
         <v>37</v>
@@ -4718,19 +4667,19 @@
       <c r="E157" s="6">
         <v>25</v>
       </c>
-      <c r="I157" s="6">
+      <c r="F157" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6">
       <c r="A158" s="2" t="s">
-        <v>322</v>
+        <v>137</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>323</v>
+        <v>138</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D158" s="6">
         <v>15</v>
@@ -4739,21 +4688,18 @@
         <v>30</v>
       </c>
       <c r="F158" s="6">
-        <v>300</v>
-      </c>
-      <c r="I158" s="6">
         <v>285</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6">
       <c r="A159" s="2" t="s">
-        <v>324</v>
+        <v>139</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>325</v>
+        <v>140</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D159" s="6">
         <v>1</v>
@@ -4762,61 +4708,52 @@
         <v>66</v>
       </c>
       <c r="F159" s="6">
-        <v>120</v>
-      </c>
-      <c r="G159" s="6">
-        <v>-1</v>
-      </c>
-      <c r="I159" s="6">
         <v>54</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6">
       <c r="A160" s="2" t="s">
-        <v>326</v>
+        <v>141</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>327</v>
+        <v>142</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="E160" s="6">
         <v>271</v>
       </c>
       <c r="F160" s="6">
-        <v>1840</v>
-      </c>
-      <c r="I160" s="6">
         <v>1569</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6">
       <c r="A161" s="2" t="s">
-        <v>328</v>
+        <v>143</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>329</v>
+        <v>144</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D161" s="6">
         <v>-13</v>
       </c>
-      <c r="I161" s="6">
+      <c r="F161" s="6">
         <v>-13</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6">
       <c r="A162" s="2" t="s">
-        <v>330</v>
+        <v>145</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>331</v>
+        <v>146</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D162" s="6">
         <v>1</v>
@@ -4825,24 +4762,18 @@
         <v>17</v>
       </c>
       <c r="F162" s="6">
-        <v>240</v>
-      </c>
-      <c r="G162" s="6">
-        <v>-1</v>
-      </c>
-      <c r="I162" s="6">
         <v>223</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6">
       <c r="A163" s="2" t="s">
-        <v>332</v>
+        <v>147</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>333</v>
+        <v>148</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D163" s="6">
         <v>95</v>
@@ -4850,36 +4781,36 @@
       <c r="E163" s="6">
         <v>88</v>
       </c>
-      <c r="I163" s="6">
+      <c r="F163" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6">
       <c r="A164" s="2" t="s">
-        <v>334</v>
+        <v>149</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>335</v>
+        <v>150</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D164" s="6">
         <v>-3</v>
       </c>
-      <c r="I164" s="6">
+      <c r="F164" s="6">
         <v>-3</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6">
       <c r="A165" s="2" t="s">
-        <v>336</v>
+        <v>151</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>337</v>
+        <v>152</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D165" s="6">
         <v>43</v>
@@ -4887,19 +4818,19 @@
       <c r="E165" s="6">
         <v>39</v>
       </c>
-      <c r="I165" s="6">
+      <c r="F165" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6">
       <c r="A166" s="2" t="s">
-        <v>338</v>
+        <v>153</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>339</v>
+        <v>154</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D166" s="6">
         <v>135</v>
@@ -4907,19 +4838,19 @@
       <c r="E166" s="6">
         <v>7</v>
       </c>
-      <c r="I166" s="6">
+      <c r="F166" s="6">
         <v>128</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6">
       <c r="A167" s="2" t="s">
-        <v>340</v>
+        <v>155</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>341</v>
+        <v>156</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D167" s="6">
         <v>1</v>
@@ -4928,41 +4859,32 @@
         <v>64</v>
       </c>
       <c r="F167" s="6">
-        <v>360</v>
-      </c>
-      <c r="G167" s="6">
-        <v>-1</v>
-      </c>
-      <c r="I167" s="6">
         <v>296</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6">
       <c r="A168" s="2" t="s">
-        <v>342</v>
+        <v>157</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>343</v>
+        <v>158</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="F168" s="6">
         <v>15</v>
       </c>
-      <c r="I168" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169" s="2" t="s">
-        <v>344</v>
+        <v>159</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>345</v>
+        <v>160</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D169" s="6">
         <v>80</v>
@@ -4970,19 +4892,19 @@
       <c r="E169" s="6">
         <v>34</v>
       </c>
-      <c r="I169" s="6">
+      <c r="F169" s="6">
         <v>46</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6">
       <c r="A170" s="2" t="s">
-        <v>346</v>
+        <v>161</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>347</v>
+        <v>162</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D170" s="6">
         <v>15</v>
@@ -4990,30 +4912,30 @@
       <c r="E170" s="6">
         <v>2</v>
       </c>
-      <c r="I170" s="6">
+      <c r="F170" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6">
       <c r="A171" s="2" t="s">
-        <v>348</v>
+        <v>163</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>349</v>
+        <v>164</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172" s="2" t="s">
-        <v>350</v>
+        <v>165</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>351</v>
+        <v>166</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D172" s="6">
         <v>17</v>
@@ -5021,30 +4943,30 @@
       <c r="E172" s="6">
         <v>4</v>
       </c>
-      <c r="I172" s="6">
+      <c r="F172" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6">
       <c r="A173" s="2" t="s">
-        <v>352</v>
+        <v>167</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>353</v>
+        <v>168</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174" s="2" t="s">
-        <v>354</v>
+        <v>169</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>355</v>
+        <v>170</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D174" s="6">
         <v>166</v>
@@ -5052,80 +4974,80 @@
       <c r="E174" s="6">
         <v>56</v>
       </c>
-      <c r="I174" s="6">
+      <c r="F174" s="6">
         <v>110</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6">
       <c r="A175" s="2" t="s">
-        <v>356</v>
+        <v>171</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>357</v>
+        <v>172</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176" s="2" t="s">
-        <v>358</v>
+        <v>173</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>359</v>
+        <v>174</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177" s="2" t="s">
-        <v>360</v>
+        <v>175</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>361</v>
+        <v>0</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178" s="2" t="s">
-        <v>362</v>
+        <v>1</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>363</v>
+        <v>2</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179" s="2" t="s">
-        <v>364</v>
+        <v>3</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>365</v>
+        <v>4</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="E179" s="6">
         <v>1</v>
       </c>
-      <c r="I179" s="6">
+      <c r="F179" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6">
       <c r="A180" s="2" t="s">
-        <v>366</v>
+        <v>5</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>367</v>
+        <v>6</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D180" s="6">
         <v>13</v>
@@ -5134,15 +5056,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6">
       <c r="A181" s="2" t="s">
-        <v>368</v>
+        <v>7</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>369</v>
+        <v>8</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D181" s="6">
         <v>56</v>
@@ -5150,19 +5072,19 @@
       <c r="E181" s="6">
         <v>7</v>
       </c>
-      <c r="I181" s="6">
+      <c r="F181" s="6">
         <v>49</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6">
       <c r="A182" s="2" t="s">
-        <v>370</v>
+        <v>9</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>371</v>
+        <v>10</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D182" s="6">
         <v>176</v>
@@ -5170,19 +5092,19 @@
       <c r="E182" s="6">
         <v>11</v>
       </c>
-      <c r="I182" s="6">
+      <c r="F182" s="6">
         <v>165</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6">
       <c r="A183" s="2" t="s">
-        <v>372</v>
+        <v>11</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>373</v>
+        <v>12</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D183" s="6">
         <v>11</v>
@@ -5190,19 +5112,19 @@
       <c r="E183" s="6">
         <v>12</v>
       </c>
-      <c r="I183" s="6">
+      <c r="F183" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6">
       <c r="A184" s="2" t="s">
-        <v>374</v>
+        <v>13</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>375</v>
+        <v>14</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D184" s="6">
         <v>45</v>
@@ -5210,19 +5132,19 @@
       <c r="E184" s="6">
         <v>21</v>
       </c>
-      <c r="I184" s="6">
+      <c r="F184" s="6">
         <v>24</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6">
       <c r="A185" s="2" t="s">
-        <v>376</v>
+        <v>15</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>377</v>
+        <v>16</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D185" s="6">
         <v>184</v>
@@ -5230,19 +5152,19 @@
       <c r="E185" s="6">
         <v>15</v>
       </c>
-      <c r="I185" s="6">
+      <c r="F185" s="6">
         <v>169</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6">
       <c r="A186" s="2" t="s">
-        <v>378</v>
+        <v>17</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>379</v>
+        <v>18</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D186" s="6">
         <v>257</v>
@@ -5250,19 +5172,19 @@
       <c r="E186" s="6">
         <v>68</v>
       </c>
-      <c r="I186" s="6">
+      <c r="F186" s="6">
         <v>189</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6">
       <c r="A187" s="2" t="s">
-        <v>380</v>
+        <v>19</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>381</v>
+        <v>20</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D187" s="6">
         <v>106</v>
@@ -5270,19 +5192,19 @@
       <c r="E187" s="6">
         <v>69</v>
       </c>
-      <c r="I187" s="6">
+      <c r="F187" s="6">
         <v>37</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6">
       <c r="A188" s="2" t="s">
-        <v>382</v>
+        <v>21</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>383</v>
+        <v>22</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D188" s="6">
         <v>53</v>
@@ -5290,19 +5212,19 @@
       <c r="E188" s="6">
         <v>2</v>
       </c>
-      <c r="I188" s="6">
+      <c r="F188" s="6">
         <v>51</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6">
       <c r="A189" s="2" t="s">
-        <v>384</v>
+        <v>23</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>385</v>
+        <v>24</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D189" s="6">
         <v>286</v>
@@ -5310,19 +5232,19 @@
       <c r="E189" s="6">
         <v>7</v>
       </c>
-      <c r="I189" s="6">
+      <c r="F189" s="6">
         <v>279</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6">
       <c r="A190" s="2" t="s">
-        <v>386</v>
+        <v>25</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>387</v>
+        <v>26</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D190" s="6">
         <v>217</v>
@@ -5330,19 +5252,19 @@
       <c r="E190" s="6">
         <v>2</v>
       </c>
-      <c r="I190" s="6">
+      <c r="F190" s="6">
         <v>215</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6">
       <c r="A191" s="2" t="s">
-        <v>388</v>
+        <v>27</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>389</v>
+        <v>28</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D191" s="6">
         <v>1919</v>
@@ -5350,19 +5272,19 @@
       <c r="E191" s="6">
         <v>218</v>
       </c>
-      <c r="I191" s="6">
+      <c r="F191" s="6">
         <v>1701</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6">
       <c r="A192" s="2" t="s">
-        <v>390</v>
+        <v>29</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>391</v>
+        <v>30</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D192" s="6">
         <v>1569</v>
@@ -5371,21 +5293,18 @@
         <v>172</v>
       </c>
       <c r="F192" s="6">
-        <v>480</v>
-      </c>
-      <c r="I192" s="6">
         <v>1877</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6">
       <c r="A193" s="2" t="s">
-        <v>392</v>
+        <v>31</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>393</v>
+        <v>32</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D193" s="6">
         <v>1375</v>
@@ -5394,21 +5313,18 @@
         <v>112</v>
       </c>
       <c r="F193" s="6">
-        <v>2160</v>
-      </c>
-      <c r="I193" s="6">
         <v>3423</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6">
       <c r="A194" s="2" t="s">
-        <v>394</v>
+        <v>33</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>395</v>
+        <v>34</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D194" s="6">
         <v>413</v>
@@ -5417,21 +5333,18 @@
         <v>113</v>
       </c>
       <c r="F194" s="6">
-        <v>560</v>
-      </c>
-      <c r="I194" s="6">
         <v>860</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6">
       <c r="A195" s="2" t="s">
-        <v>396</v>
+        <v>35</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>397</v>
+        <v>36</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D195" s="6">
         <v>1394</v>
@@ -5439,19 +5352,19 @@
       <c r="E195" s="6">
         <v>111</v>
       </c>
-      <c r="I195" s="6">
+      <c r="F195" s="6">
         <v>1283</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6">
       <c r="A196" s="2" t="s">
-        <v>398</v>
+        <v>37</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>399</v>
+        <v>38</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D196" s="6">
         <v>191</v>
@@ -5459,19 +5372,19 @@
       <c r="E196" s="6">
         <v>16</v>
       </c>
-      <c r="I196" s="6">
+      <c r="F196" s="6">
         <v>175</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6">
       <c r="A197" s="2" t="s">
-        <v>400</v>
+        <v>39</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>401</v>
+        <v>40</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D197" s="6">
         <v>392</v>
@@ -5479,19 +5392,19 @@
       <c r="E197" s="6">
         <v>42</v>
       </c>
-      <c r="I197" s="6">
+      <c r="F197" s="6">
         <v>350</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6">
       <c r="A198" s="2" t="s">
-        <v>402</v>
+        <v>41</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>403</v>
+        <v>42</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D198" s="6">
         <v>23</v>
@@ -5499,19 +5412,19 @@
       <c r="E198" s="6">
         <v>5</v>
       </c>
-      <c r="I198" s="6">
+      <c r="F198" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6">
       <c r="A199" s="2" t="s">
-        <v>404</v>
+        <v>43</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>405</v>
+        <v>44</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D199" s="6">
         <v>60</v>
@@ -5519,19 +5432,19 @@
       <c r="E199" s="6">
         <v>6</v>
       </c>
-      <c r="I199" s="6">
+      <c r="F199" s="6">
         <v>54</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6">
       <c r="A200" s="2" t="s">
-        <v>406</v>
+        <v>45</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>407</v>
+        <v>46</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D200" s="6">
         <v>45</v>
@@ -5539,19 +5452,19 @@
       <c r="E200" s="6">
         <v>9</v>
       </c>
-      <c r="I200" s="6">
+      <c r="F200" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6">
       <c r="A201" s="2" t="s">
-        <v>408</v>
+        <v>47</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>409</v>
+        <v>48</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D201" s="6">
         <v>376</v>
@@ -5559,19 +5472,19 @@
       <c r="E201" s="6">
         <v>44</v>
       </c>
-      <c r="I201" s="6">
+      <c r="F201" s="6">
         <v>332</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6">
       <c r="A202" s="2" t="s">
-        <v>410</v>
+        <v>49</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>411</v>
+        <v>50</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D202" s="6">
         <v>1010</v>
@@ -5579,19 +5492,19 @@
       <c r="E202" s="6">
         <v>135</v>
       </c>
-      <c r="I202" s="6">
+      <c r="F202" s="6">
         <v>875</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6">
       <c r="A203" s="2" t="s">
-        <v>412</v>
+        <v>51</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>413</v>
+        <v>52</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D203" s="6">
         <v>250</v>
@@ -5599,19 +5512,19 @@
       <c r="E203" s="6">
         <v>136</v>
       </c>
-      <c r="I203" s="6">
+      <c r="F203" s="6">
         <v>114</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6">
       <c r="A204" s="2" t="s">
-        <v>414</v>
+        <v>53</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>415</v>
+        <v>54</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D204" s="6">
         <v>1450</v>
@@ -5619,19 +5532,19 @@
       <c r="E204" s="6">
         <v>228</v>
       </c>
-      <c r="I204" s="6">
+      <c r="F204" s="6">
         <v>1222</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6">
       <c r="A205" s="2" t="s">
-        <v>416</v>
+        <v>55</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>417</v>
+        <v>56</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D205" s="6">
         <v>380</v>
@@ -5639,19 +5552,19 @@
       <c r="E205" s="6">
         <v>213</v>
       </c>
-      <c r="I205" s="6">
+      <c r="F205" s="6">
         <v>167</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6">
       <c r="A206" s="2" t="s">
-        <v>418</v>
+        <v>57</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>419</v>
+        <v>58</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D206" s="6">
         <v>360</v>
@@ -5659,19 +5572,19 @@
       <c r="E206" s="6">
         <v>103</v>
       </c>
-      <c r="I206" s="6">
+      <c r="F206" s="6">
         <v>257</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6">
       <c r="A207" s="2" t="s">
-        <v>420</v>
+        <v>59</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>421</v>
+        <v>60</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D207" s="6">
         <v>235</v>
@@ -5679,19 +5592,19 @@
       <c r="E207" s="6">
         <v>68</v>
       </c>
-      <c r="I207" s="6">
+      <c r="F207" s="6">
         <v>167</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6">
       <c r="A208" s="2" t="s">
-        <v>422</v>
+        <v>61</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>423</v>
+        <v>62</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D208" s="6">
         <v>509</v>
@@ -5699,19 +5612,19 @@
       <c r="E208" s="6">
         <v>281</v>
       </c>
-      <c r="I208" s="6">
+      <c r="F208" s="6">
         <v>228</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6">
       <c r="A209" s="2" t="s">
-        <v>424</v>
+        <v>63</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>425</v>
+        <v>64</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D209" s="6">
         <v>15</v>
@@ -5719,19 +5632,19 @@
       <c r="E209" s="6">
         <v>12</v>
       </c>
-      <c r="I209" s="6">
+      <c r="F209" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6">
       <c r="A210" s="2" t="s">
-        <v>426</v>
+        <v>65</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>427</v>
+        <v>66</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D210" s="6">
         <v>845</v>
@@ -5739,19 +5652,19 @@
       <c r="E210" s="6">
         <v>230</v>
       </c>
-      <c r="I210" s="6">
+      <c r="F210" s="6">
         <v>615</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6">
       <c r="A211" s="2" t="s">
-        <v>428</v>
+        <v>67</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>429</v>
+        <v>68</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D211" s="6">
         <v>284</v>
@@ -5759,19 +5672,19 @@
       <c r="E211" s="6">
         <v>118</v>
       </c>
-      <c r="I211" s="6">
+      <c r="F211" s="6">
         <v>166</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6">
       <c r="A212" s="2" t="s">
-        <v>430</v>
+        <v>69</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>431</v>
+        <v>70</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D212" s="6">
         <v>278</v>
@@ -5779,36 +5692,36 @@
       <c r="E212" s="6">
         <v>28</v>
       </c>
-      <c r="I212" s="6">
+      <c r="F212" s="6">
         <v>250</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6">
       <c r="A213" s="2" t="s">
-        <v>432</v>
+        <v>71</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>433</v>
+        <v>72</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D213" s="6">
         <v>58</v>
       </c>
-      <c r="I213" s="6">
+      <c r="F213" s="6">
         <v>58</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6">
       <c r="A214" s="2" t="s">
-        <v>434</v>
+        <v>73</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>435</v>
+        <v>74</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D214" s="6">
         <v>219</v>
@@ -5816,19 +5729,19 @@
       <c r="E214" s="6">
         <v>5</v>
       </c>
-      <c r="I214" s="6">
+      <c r="F214" s="6">
         <v>214</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6">
       <c r="A215" s="2" t="s">
-        <v>436</v>
+        <v>75</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>437</v>
+        <v>76</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D215" s="6">
         <v>33</v>
@@ -5836,19 +5749,19 @@
       <c r="E215" s="6">
         <v>3</v>
       </c>
-      <c r="I215" s="6">
+      <c r="F215" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6">
       <c r="A216" s="2" t="s">
-        <v>438</v>
+        <v>77</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>439</v>
+        <v>78</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D216" s="6">
         <v>147</v>
@@ -5856,19 +5769,19 @@
       <c r="E216" s="6">
         <v>82</v>
       </c>
-      <c r="I216" s="6">
+      <c r="F216" s="6">
         <v>65</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6">
       <c r="A217" s="2" t="s">
-        <v>440</v>
+        <v>79</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>441</v>
+        <v>80</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="D217" s="6">
         <v>147</v>
@@ -5876,55 +5789,41 @@
       <c r="E217" s="6">
         <v>32</v>
       </c>
-      <c r="I217" s="6">
+      <c r="F217" s="6">
         <v>115</v>
       </c>
     </row>
-    <row r="218" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" customFormat="1" ht="15">
       <c r="E218" s="10"/>
-      <c r="F218" s="10"/>
-      <c r="G218" s="10"/>
-    </row>
-    <row r="219" spans="1:9" s="4" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:6" s="4" customFormat="1" ht="12" thickBot="1">
       <c r="A219" s="3" t="s">
-        <v>442</v>
+        <v>81</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>442</v>
+        <v>81</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>442</v>
+        <v>81</v>
       </c>
       <c r="D219" s="5"/>
       <c r="E219" s="5">
         <f>SUBTOTAL(9, E2:E218)</f>
         <v>9778</v>
       </c>
-      <c r="F219" s="5">
-        <f>SUBTOTAL(9, F2:F218)</f>
-        <v>12545</v>
-      </c>
-      <c r="G219" s="5">
-        <f>SUBTOTAL(9, G2:G218)</f>
-        <v>-37</v>
-      </c>
-      <c r="H219" s="5"/>
-      <c r="I219" s="5"/>
-    </row>
-    <row r="220" spans="1:9" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F219" s="5"/>
+    </row>
+    <row r="220" spans="1:6" customFormat="1" ht="17" thickTop="1" thickBot="1">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
       <c r="D220" s="11"/>
       <c r="E220" s="12"/>
-      <c r="F220" s="12"/>
-      <c r="G220" s="12"/>
-      <c r="H220" s="11"/>
-      <c r="I220" s="11"/>
+      <c r="F220" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="1.25" bottom="0.65277777777777779" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;C&amp;"Arial"&amp;12&amp;BGustiamo, Inc.&amp;B
 &amp;11&amp;BInventory Unit Activity Report&amp;B
@@ -5933,5 +5832,10 @@
 &amp;"Arial"&amp;8Filter Criteria includes: 1) Active Items; 2) Stock/Assembly/Serialized. Report order is by ID. Report </oddHeader>
     <oddFooter>&amp;L&amp;08&amp;"MS San Serif"&amp;D at &amp;T&amp;R&amp;08&amp;"MS San Serif"Page: &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>